--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (2-3-4-digit codes).xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (2-3-4-digit codes).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="65">
   <si>
     <t>Index of production in manufacturing: Germany, months,
 original and adjusted data, economic activities
@@ -209,7 +209,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:34:56</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:13:03</t>
   </si>
 </sst>
 </file>
@@ -13828,16 +13828,16 @@
         <v>95.5</v>
       </c>
       <c r="NJ10" t="n" s="10">
-        <v>104.0</v>
-      </c>
-      <c r="NK10" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL10" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM10" t="s" s="10">
-        <v>53</v>
+        <v>104.6</v>
+      </c>
+      <c r="NK10" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="NL10" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="NM10" t="n" s="10">
+        <v>95.1</v>
       </c>
       <c r="NN10" t="s" s="10">
         <v>53</v>
@@ -14748,7 +14748,7 @@
         <v>100.3</v>
       </c>
       <c r="KI11" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="KJ11" t="n" s="10">
         <v>102.7</v>
@@ -14766,7 +14766,7 @@
         <v>97.4</v>
       </c>
       <c r="KO11" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="KP11" t="n" s="10">
         <v>104.7</v>
@@ -14784,7 +14784,7 @@
         <v>103.2</v>
       </c>
       <c r="KU11" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="KV11" t="n" s="10">
         <v>101.1</v>
@@ -14802,7 +14802,7 @@
         <v>95.9</v>
       </c>
       <c r="LA11" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="LB11" t="n" s="10">
         <v>103.2</v>
@@ -14826,13 +14826,13 @@
         <v>105.0</v>
       </c>
       <c r="LI11" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="LJ11" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="LK11" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="LL11" t="n" s="10">
         <v>103.3</v>
@@ -14874,7 +14874,7 @@
         <v>93.4</v>
       </c>
       <c r="LY11" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="LZ11" t="n" s="10">
         <v>104.1</v>
@@ -14901,7 +14901,7 @@
         <v>94.8</v>
       </c>
       <c r="MH11" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="MI11" t="n" s="10">
         <v>97.0</v>
@@ -14910,7 +14910,7 @@
         <v>93.3</v>
       </c>
       <c r="MK11" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="ML11" t="n" s="10">
         <v>102.8</v>
@@ -14949,7 +14949,7 @@
         <v>93.8</v>
       </c>
       <c r="MX11" t="n" s="10">
-        <v>108.0</v>
+        <v>107.9</v>
       </c>
       <c r="MY11" t="n" s="10">
         <v>99.3</v>
@@ -14982,19 +14982,19 @@
         <v>98.8</v>
       </c>
       <c r="NI11" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="NJ11" t="n" s="10">
-        <v>105.0</v>
-      </c>
-      <c r="NK11" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL11" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM11" t="s" s="10">
-        <v>53</v>
+        <v>105.6</v>
+      </c>
+      <c r="NK11" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="NL11" t="n" s="10">
+        <v>104.9</v>
+      </c>
+      <c r="NM11" t="n" s="10">
+        <v>96.5</v>
       </c>
       <c r="NN11" t="s" s="10">
         <v>53</v>
@@ -15896,13 +15896,13 @@
         <v>99.0</v>
       </c>
       <c r="KF12" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="KG12" t="n" s="10">
         <v>100.8</v>
       </c>
       <c r="KH12" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="KI12" t="n" s="10">
         <v>100.9</v>
@@ -15914,7 +15914,7 @@
         <v>100.8</v>
       </c>
       <c r="KL12" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="KM12" t="n" s="10">
         <v>98.9</v>
@@ -15923,25 +15923,25 @@
         <v>99.9</v>
       </c>
       <c r="KO12" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="KP12" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KQ12" t="n" s="10">
         <v>102.7</v>
       </c>
       <c r="KR12" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="KS12" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="KT12" t="n" s="10">
-        <v>101.9</v>
+        <v>101.7</v>
       </c>
       <c r="KU12" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="KV12" t="n" s="10">
         <v>98.4</v>
@@ -15959,199 +15959,199 @@
         <v>98.4</v>
       </c>
       <c r="LA12" t="n" s="10">
-        <v>100.1</v>
+        <v>99.9</v>
       </c>
       <c r="LB12" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="LC12" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="LD12" t="n" s="10">
-        <v>100.0</v>
+        <v>100.2</v>
       </c>
       <c r="LE12" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="LF12" t="n" s="10">
-        <v>98.3</v>
+        <v>98.0</v>
       </c>
       <c r="LG12" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="LH12" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="LI12" t="n" s="10">
         <v>103.4</v>
       </c>
       <c r="LJ12" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="LK12" t="n" s="10">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="LL12" t="n" s="10">
-        <v>106.1</v>
+        <v>106.0</v>
       </c>
       <c r="LM12" t="n" s="10">
-        <v>105.0</v>
+        <v>104.8</v>
       </c>
       <c r="LN12" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="LO12" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="LP12" t="n" s="10">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="LQ12" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="LR12" t="n" s="10">
-        <v>103.7</v>
+        <v>103.2</v>
       </c>
       <c r="LS12" t="n" s="10">
-        <v>101.8</v>
+        <v>102.0</v>
       </c>
       <c r="LT12" t="n" s="10">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="LU12" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="LV12" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="LW12" t="n" s="10">
-        <v>96.5</v>
+        <v>96.8</v>
       </c>
       <c r="LX12" t="n" s="10">
-        <v>95.9</v>
+        <v>95.7</v>
       </c>
       <c r="LY12" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="LZ12" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="MA12" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="MB12" t="n" s="10">
-        <v>96.6</v>
+        <v>96.8</v>
       </c>
       <c r="MC12" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="MD12" t="n" s="10">
-        <v>96.4</v>
+        <v>95.9</v>
       </c>
       <c r="ME12" t="n" s="10">
-        <v>96.7</v>
+        <v>96.9</v>
       </c>
       <c r="MF12" t="n" s="10">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="MG12" t="n" s="10">
         <v>96.2</v>
       </c>
       <c r="MH12" t="n" s="10">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="MI12" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="MJ12" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="MK12" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="ML12" t="n" s="10">
         <v>97.5</v>
       </c>
-      <c r="MJ12" t="n" s="10">
-        <v>95.8</v>
-      </c>
-      <c r="MK12" t="n" s="10">
-        <v>94.0</v>
-      </c>
-      <c r="ML12" t="n" s="10">
-        <v>97.4</v>
-      </c>
       <c r="MM12" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="MN12" t="n" s="10">
-        <v>98.1</v>
+        <v>98.3</v>
       </c>
       <c r="MO12" t="n" s="10">
         <v>90.1</v>
       </c>
       <c r="MP12" t="n" s="10">
-        <v>86.2</v>
+        <v>85.6</v>
       </c>
       <c r="MQ12" t="n" s="10">
-        <v>87.6</v>
+        <v>87.9</v>
       </c>
       <c r="MR12" t="n" s="10">
-        <v>92.5</v>
+        <v>92.9</v>
       </c>
       <c r="MS12" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="MT12" t="n" s="10">
-        <v>95.2</v>
+        <v>95.0</v>
       </c>
       <c r="MU12" t="n" s="10">
+        <v>99.3</v>
+      </c>
+      <c r="MV12" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="MW12" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="MX12" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="MY12" t="n" s="10">
         <v>98.9</v>
       </c>
-      <c r="MV12" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="MW12" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="MX12" t="n" s="10">
-        <v>102.1</v>
-      </c>
-      <c r="MY12" t="n" s="10">
-        <v>99.0</v>
-      </c>
       <c r="MZ12" t="n" s="10">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="NA12" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="NB12" t="n" s="10">
-        <v>103.0</v>
+        <v>102.2</v>
       </c>
       <c r="NC12" t="n" s="10">
-        <v>98.3</v>
+        <v>98.6</v>
       </c>
       <c r="ND12" t="n" s="10">
-        <v>97.6</v>
+        <v>98.1</v>
       </c>
       <c r="NE12" t="n" s="10">
         <v>100.0</v>
       </c>
       <c r="NF12" t="n" s="10">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="NG12" t="n" s="10">
-        <v>97.7</v>
+        <v>98.2</v>
       </c>
       <c r="NH12" t="n" s="10">
-        <v>101.2</v>
+        <v>101.0</v>
       </c>
       <c r="NI12" t="n" s="10">
-        <v>101.4</v>
+        <v>101.0</v>
       </c>
       <c r="NJ12" t="n" s="10">
-        <v>99.1</v>
-      </c>
-      <c r="NK12" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL12" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM12" t="s" s="10">
-        <v>53</v>
+        <v>99.8</v>
+      </c>
+      <c r="NK12" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="NL12" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="NM12" t="n" s="10">
+        <v>95.4</v>
       </c>
       <c r="NN12" t="s" s="10">
         <v>53</v>
@@ -17050,7 +17050,7 @@
         <v>99.0</v>
       </c>
       <c r="KE13" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="KF13" t="n" s="10">
         <v>100.0</v>
@@ -17065,7 +17065,7 @@
         <v>101.0</v>
       </c>
       <c r="KJ13" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="KK13" t="n" s="10">
         <v>100.3</v>
@@ -17086,7 +17086,7 @@
         <v>100.3</v>
       </c>
       <c r="KQ13" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="KR13" t="n" s="10">
         <v>99.8</v>
@@ -17098,7 +17098,7 @@
         <v>101.8</v>
       </c>
       <c r="KU13" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="KV13" t="n" s="10">
         <v>98.8</v>
@@ -17122,7 +17122,7 @@
         <v>99.6</v>
       </c>
       <c r="LC13" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="LD13" t="n" s="10">
         <v>101.2</v>
@@ -17149,7 +17149,7 @@
         <v>103.4</v>
       </c>
       <c r="LL13" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="LM13" t="n" s="10">
         <v>104.0</v>
@@ -17164,10 +17164,10 @@
         <v>100.9</v>
       </c>
       <c r="LQ13" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="LR13" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="LS13" t="n" s="10">
         <v>102.2</v>
@@ -17188,19 +17188,19 @@
         <v>96.5</v>
       </c>
       <c r="LY13" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="LZ13" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="MA13" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="MB13" t="n" s="10">
         <v>96.1</v>
       </c>
       <c r="MC13" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="MD13" t="n" s="10">
         <v>96.5</v>
@@ -17224,91 +17224,91 @@
         <v>95.6</v>
       </c>
       <c r="MK13" t="n" s="10">
-        <v>92.8</v>
+        <v>93.0</v>
       </c>
       <c r="ML13" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="MM13" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="MN13" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="MO13" t="n" s="10">
         <v>92.0</v>
       </c>
       <c r="MP13" t="n" s="10">
-        <v>85.9</v>
+        <v>85.6</v>
       </c>
       <c r="MQ13" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="MR13" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="MS13" t="n" s="10">
-        <v>94.9</v>
+        <v>95.0</v>
       </c>
       <c r="MT13" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="MU13" t="n" s="10">
-        <v>98.2</v>
+        <v>98.4</v>
       </c>
       <c r="MV13" t="n" s="10">
         <v>98.8</v>
       </c>
       <c r="MW13" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="MX13" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="MY13" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="MZ13" t="n" s="10">
-        <v>98.8</v>
+        <v>99.0</v>
       </c>
       <c r="NA13" t="n" s="10">
-        <v>102.7</v>
+        <v>102.1</v>
       </c>
       <c r="NB13" t="n" s="10">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="NC13" t="n" s="10">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="ND13" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="NE13" t="n" s="10">
         <v>101.5</v>
       </c>
       <c r="NF13" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="NG13" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="NH13" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="NI13" t="n" s="10">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="NJ13" t="n" s="10">
+        <v>97.7</v>
+      </c>
+      <c r="NK13" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="NL13" t="n" s="10">
         <v>97.0</v>
       </c>
-      <c r="NK13" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL13" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM13" t="s" s="10">
-        <v>53</v>
+      <c r="NM13" t="n" s="10">
+        <v>96.5</v>
       </c>
       <c r="NN13" t="s" s="10">
         <v>53</v>
@@ -17781,7 +17781,7 @@
         <v>94.8</v>
       </c>
       <c r="ES14" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="ET14" t="n" s="10">
         <v>94.5</v>
@@ -17802,7 +17802,7 @@
         <v>93.5</v>
       </c>
       <c r="EZ14" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="FA14" t="n" s="10">
         <v>93.9</v>
@@ -17814,13 +17814,13 @@
         <v>94.5</v>
       </c>
       <c r="FD14" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="FE14" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="FF14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="FG14" t="n" s="10">
         <v>97.0</v>
@@ -17955,7 +17955,7 @@
         <v>107.2</v>
       </c>
       <c r="GY14" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="GZ14" t="n" s="10">
         <v>107.0</v>
@@ -17982,13 +17982,13 @@
         <v>95.6</v>
       </c>
       <c r="HH14" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="HI14" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="HJ14" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="HK14" t="n" s="10">
         <v>87.8</v>
@@ -18099,7 +18099,7 @@
         <v>100.9</v>
       </c>
       <c r="IU14" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="IV14" t="n" s="10">
         <v>100.7</v>
@@ -18108,7 +18108,7 @@
         <v>100.8</v>
       </c>
       <c r="IX14" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="IY14" t="n" s="10">
         <v>100.9</v>
@@ -18144,7 +18144,7 @@
         <v>101.3</v>
       </c>
       <c r="JJ14" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="JK14" t="n" s="10">
         <v>102.0</v>
@@ -18240,7 +18240,7 @@
         <v>100.0</v>
       </c>
       <c r="KP14" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="KQ14" t="n" s="10">
         <v>99.9</v>
@@ -18372,7 +18372,7 @@
         <v>96.8</v>
       </c>
       <c r="MH14" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="MI14" t="n" s="10">
         <v>96.2</v>
@@ -18405,67 +18405,67 @@
         <v>95.2</v>
       </c>
       <c r="MS14" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="MT14" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="MU14" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="MV14" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="MW14" t="n" s="10">
         <v>98.6</v>
       </c>
       <c r="MX14" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="MY14" t="n" s="10">
-        <v>100.0</v>
+        <v>99.8</v>
       </c>
       <c r="MZ14" t="n" s="10">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="NA14" t="n" s="10">
-        <v>101.0</v>
+        <v>100.6</v>
       </c>
       <c r="NB14" t="n" s="10">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="NC14" t="n" s="10">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="ND14" t="n" s="10">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
       <c r="NE14" t="n" s="10">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="NF14" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="NG14" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="NH14" t="n" s="10">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="NI14" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="NJ14" t="n" s="10">
         <v>98.9</v>
       </c>
-      <c r="NJ14" t="n" s="10">
-        <v>98.3</v>
-      </c>
-      <c r="NK14" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL14" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM14" t="s" s="10">
-        <v>53</v>
+      <c r="NK14" t="n" s="10">
+        <v>98.5</v>
+      </c>
+      <c r="NL14" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="NM14" t="n" s="10">
+        <v>97.2</v>
       </c>
       <c r="NN14" t="s" s="10">
         <v>53</v>
@@ -19618,16 +19618,16 @@
         <v>77.2</v>
       </c>
       <c r="NJ16" t="n" s="10">
-        <v>88.9</v>
-      </c>
-      <c r="NK16" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL16" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM16" t="s" s="10">
-        <v>53</v>
+        <v>89.5</v>
+      </c>
+      <c r="NK16" t="n" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="NL16" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="NM16" t="n" s="10">
+        <v>87.5</v>
       </c>
       <c r="NN16" t="s" s="10">
         <v>53</v>
@@ -20541,7 +20541,7 @@
         <v>104.2</v>
       </c>
       <c r="KJ17" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="KK17" t="n" s="10">
         <v>95.0</v>
@@ -20556,7 +20556,7 @@
         <v>100.7</v>
       </c>
       <c r="KO17" t="n" s="10">
-        <v>79.6</v>
+        <v>79.5</v>
       </c>
       <c r="KP17" t="n" s="10">
         <v>100.9</v>
@@ -20571,10 +20571,10 @@
         <v>102.1</v>
       </c>
       <c r="KT17" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KU17" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="KV17" t="n" s="10">
         <v>97.5</v>
@@ -20583,16 +20583,16 @@
         <v>92.5</v>
       </c>
       <c r="KX17" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KY17" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="KZ17" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="LA17" t="n" s="10">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="LB17" t="n" s="10">
         <v>99.0</v>
@@ -20607,13 +20607,13 @@
         <v>104.5</v>
       </c>
       <c r="LF17" t="n" s="10">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="LG17" t="n" s="10">
         <v>103.3</v>
       </c>
       <c r="LH17" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="LI17" t="n" s="10">
         <v>96.4</v>
@@ -20625,13 +20625,13 @@
         <v>105.7</v>
       </c>
       <c r="LL17" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="LM17" t="n" s="10">
         <v>85.4</v>
       </c>
       <c r="LN17" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="LO17" t="n" s="10">
         <v>101.4</v>
@@ -20646,7 +20646,7 @@
         <v>105.0</v>
       </c>
       <c r="LS17" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="LT17" t="n" s="10">
         <v>102.0</v>
@@ -20664,7 +20664,7 @@
         <v>102.8</v>
       </c>
       <c r="LY17" t="n" s="10">
-        <v>80.3</v>
+        <v>80.6</v>
       </c>
       <c r="LZ17" t="n" s="10">
         <v>100.5</v>
@@ -20682,7 +20682,7 @@
         <v>98.8</v>
       </c>
       <c r="ME17" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="MF17" t="n" s="10">
         <v>95.5</v>
@@ -20697,10 +20697,10 @@
         <v>95.4</v>
       </c>
       <c r="MJ17" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="MK17" t="n" s="10">
-        <v>72.1</v>
+        <v>72.3</v>
       </c>
       <c r="ML17" t="n" s="10">
         <v>91.6</v>
@@ -20736,7 +20736,7 @@
         <v>91.2</v>
       </c>
       <c r="MW17" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="MX17" t="n" s="10">
         <v>91.9</v>
@@ -20751,7 +20751,7 @@
         <v>91.9</v>
       </c>
       <c r="NB17" t="n" s="10">
-        <v>95.7</v>
+        <v>95.6</v>
       </c>
       <c r="NC17" t="n" s="10">
         <v>93.5</v>
@@ -20772,19 +20772,19 @@
         <v>90.9</v>
       </c>
       <c r="NI17" t="n" s="10">
-        <v>75.6</v>
+        <v>75.4</v>
       </c>
       <c r="NJ17" t="n" s="10">
-        <v>90.2</v>
-      </c>
-      <c r="NK17" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL17" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM17" t="s" s="10">
-        <v>53</v>
+        <v>90.8</v>
+      </c>
+      <c r="NK17" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="NL17" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="NM17" t="n" s="10">
+        <v>89.5</v>
       </c>
       <c r="NN17" t="s" s="10">
         <v>53</v>
@@ -21680,16 +21680,16 @@
         <v>102.8</v>
       </c>
       <c r="KD18" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="KE18" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="KF18" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="KG18" t="n" s="10">
         <v>99.9</v>
-      </c>
-      <c r="KE18" t="n" s="10">
-        <v>100.7</v>
-      </c>
-      <c r="KF18" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="KG18" t="n" s="10">
-        <v>100.0</v>
       </c>
       <c r="KH18" t="n" s="10">
         <v>99.0</v>
@@ -21704,31 +21704,31 @@
         <v>101.8</v>
       </c>
       <c r="KL18" t="n" s="10">
-        <v>99.8</v>
+        <v>100.0</v>
       </c>
       <c r="KM18" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="KN18" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="KO18" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="KP18" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="KQ18" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="KR18" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="KS18" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="KT18" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="KU18" t="n" s="10">
         <v>98.0</v>
@@ -21737,10 +21737,10 @@
         <v>96.7</v>
       </c>
       <c r="KW18" t="n" s="10">
-        <v>99.2</v>
+        <v>99.4</v>
       </c>
       <c r="KX18" t="n" s="10">
-        <v>97.1</v>
+        <v>97.5</v>
       </c>
       <c r="KY18" t="n" s="10">
         <v>99.0</v>
@@ -21749,34 +21749,34 @@
         <v>97.9</v>
       </c>
       <c r="LA18" t="n" s="10">
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="LB18" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="LC18" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="LD18" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="LE18" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="LF18" t="n" s="10">
-        <v>101.0</v>
+        <v>100.8</v>
       </c>
       <c r="LG18" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="LH18" t="n" s="10">
         <v>101.5</v>
       </c>
       <c r="LI18" t="n" s="10">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="LJ18" t="n" s="10">
-        <v>101.7</v>
+        <v>102.3</v>
       </c>
       <c r="LK18" t="n" s="10">
         <v>102.0</v>
@@ -21785,34 +21785,34 @@
         <v>102.5</v>
       </c>
       <c r="LM18" t="n" s="10">
-        <v>105.5</v>
+        <v>105.2</v>
       </c>
       <c r="LN18" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="LO18" t="n" s="10">
-        <v>102.1</v>
+        <v>102.0</v>
       </c>
       <c r="LP18" t="n" s="10">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="LQ18" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="LR18" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="LS18" t="n" s="10">
         <v>102.4</v>
       </c>
-      <c r="LS18" t="n" s="10">
-        <v>102.5</v>
-      </c>
       <c r="LT18" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="LU18" t="n" s="10">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="LV18" t="n" s="10">
-        <v>102.7</v>
+        <v>103.3</v>
       </c>
       <c r="LW18" t="n" s="10">
         <v>101.2</v>
@@ -21821,70 +21821,70 @@
         <v>101.0</v>
       </c>
       <c r="LY18" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="LZ18" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="MA18" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="MB18" t="n" s="10">
         <v>98.2</v>
-      </c>
-      <c r="MB18" t="n" s="10">
-        <v>98.4</v>
       </c>
       <c r="MC18" t="n" s="10">
         <v>95.3</v>
       </c>
       <c r="MD18" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="ME18" t="n" s="10">
+        <v>96.5</v>
+      </c>
+      <c r="MF18" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="MG18" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="MH18" t="n" s="10">
         <v>96.3</v>
       </c>
-      <c r="ME18" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="MF18" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="MG18" t="n" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="MH18" t="n" s="10">
-        <v>95.6</v>
-      </c>
       <c r="MI18" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="MJ18" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="MK18" t="n" s="10">
-        <v>89.0</v>
+        <v>88.7</v>
       </c>
       <c r="ML18" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="MM18" t="n" s="10">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="MN18" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="MO18" t="n" s="10">
         <v>67.2</v>
       </c>
       <c r="MP18" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="MQ18" t="n" s="10">
-        <v>71.4</v>
+        <v>71.2</v>
       </c>
       <c r="MR18" t="n" s="10">
-        <v>74.8</v>
+        <v>75.0</v>
       </c>
       <c r="MS18" t="n" s="10">
-        <v>83.4</v>
+        <v>83.7</v>
       </c>
       <c r="MT18" t="n" s="10">
-        <v>84.2</v>
+        <v>85.0</v>
       </c>
       <c r="MU18" t="n" s="10">
         <v>87.3</v>
@@ -21893,55 +21893,55 @@
         <v>89.6</v>
       </c>
       <c r="MW18" t="n" s="10">
-        <v>91.2</v>
+        <v>90.5</v>
       </c>
       <c r="MX18" t="n" s="10">
+        <v>91.4</v>
+      </c>
+      <c r="MY18" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="MZ18" t="n" s="10">
         <v>91.5</v>
-      </c>
-      <c r="MY18" t="n" s="10">
-        <v>90.2</v>
-      </c>
-      <c r="MZ18" t="n" s="10">
-        <v>91.7</v>
       </c>
       <c r="NA18" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="NB18" t="n" s="10">
-        <v>93.1</v>
+        <v>92.9</v>
       </c>
       <c r="NC18" t="n" s="10">
-        <v>91.0</v>
+        <v>90.8</v>
       </c>
       <c r="ND18" t="n" s="10">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="NE18" t="n" s="10">
-        <v>84.1</v>
+        <v>84.6</v>
       </c>
       <c r="NF18" t="n" s="10">
-        <v>86.7</v>
+        <v>87.6</v>
       </c>
       <c r="NG18" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="NH18" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="NI18" t="n" s="10">
-        <v>93.3</v>
+        <v>92.3</v>
       </c>
       <c r="NJ18" t="n" s="10">
-        <v>89.8</v>
-      </c>
-      <c r="NK18" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL18" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM18" t="s" s="10">
-        <v>53</v>
+        <v>90.3</v>
+      </c>
+      <c r="NK18" t="n" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="NL18" t="n" s="10">
+        <v>85.8</v>
+      </c>
+      <c r="NM18" t="n" s="10">
+        <v>87.8</v>
       </c>
       <c r="NN18" t="s" s="10">
         <v>53</v>
@@ -22837,10 +22837,10 @@
         <v>100.4</v>
       </c>
       <c r="KD19" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="KE19" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KF19" t="n" s="10">
         <v>100.3</v>
@@ -22855,16 +22855,16 @@
         <v>101.1</v>
       </c>
       <c r="KJ19" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="KK19" t="n" s="10">
         <v>101.0</v>
-      </c>
-      <c r="KK19" t="n" s="10">
-        <v>101.1</v>
       </c>
       <c r="KL19" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="KM19" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="KN19" t="n" s="10">
         <v>99.7</v>
@@ -22876,7 +22876,7 @@
         <v>99.8</v>
       </c>
       <c r="KQ19" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="KR19" t="n" s="10">
         <v>98.0</v>
@@ -22885,10 +22885,10 @@
         <v>98.9</v>
       </c>
       <c r="KT19" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="KU19" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="KV19" t="n" s="10">
         <v>97.4</v>
@@ -22897,7 +22897,7 @@
         <v>97.6</v>
       </c>
       <c r="KX19" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="KY19" t="n" s="10">
         <v>98.4</v>
@@ -22906,19 +22906,19 @@
         <v>97.8</v>
       </c>
       <c r="LA19" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="LB19" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="LC19" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="LD19" t="n" s="10">
         <v>100.8</v>
       </c>
       <c r="LE19" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="LF19" t="n" s="10">
         <v>100.6</v>
@@ -22930,7 +22930,7 @@
         <v>101.5</v>
       </c>
       <c r="LI19" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="LJ19" t="n" s="10">
         <v>101.7</v>
@@ -22942,10 +22942,10 @@
         <v>102.4</v>
       </c>
       <c r="LM19" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="LN19" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="LO19" t="n" s="10">
         <v>102.4</v>
@@ -22954,34 +22954,34 @@
         <v>102.1</v>
       </c>
       <c r="LQ19" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="LR19" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="LS19" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="LT19" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="LU19" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="LV19" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="LW19" t="n" s="10">
         <v>101.7</v>
       </c>
       <c r="LX19" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="LY19" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="LZ19" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="MA19" t="n" s="10">
         <v>97.6</v>
@@ -23002,7 +23002,7 @@
         <v>97.3</v>
       </c>
       <c r="MG19" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="MH19" t="n" s="10">
         <v>94.7</v>
@@ -23014,13 +23014,13 @@
         <v>88.6</v>
       </c>
       <c r="MK19" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="ML19" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="MM19" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="MN19" t="n" s="10">
         <v>85.4</v>
@@ -23029,76 +23029,76 @@
         <v>67.8</v>
       </c>
       <c r="MP19" t="n" s="10">
-        <v>67.1</v>
+        <v>66.6</v>
       </c>
       <c r="MQ19" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="MR19" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="MS19" t="n" s="10">
-        <v>84.5</v>
+        <v>84.8</v>
       </c>
       <c r="MT19" t="n" s="10">
-        <v>84.3</v>
+        <v>84.6</v>
       </c>
       <c r="MU19" t="n" s="10">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="MV19" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="MW19" t="n" s="10">
-        <v>87.3</v>
+        <v>87.6</v>
       </c>
       <c r="MX19" t="n" s="10">
-        <v>87.7</v>
+        <v>87.9</v>
       </c>
       <c r="MY19" t="n" s="10">
-        <v>87.0</v>
+        <v>87.2</v>
       </c>
       <c r="MZ19" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="NA19" t="n" s="10">
-        <v>91.9</v>
+        <v>91.3</v>
       </c>
       <c r="NB19" t="n" s="10">
-        <v>92.3</v>
+        <v>91.7</v>
       </c>
       <c r="NC19" t="n" s="10">
-        <v>97.0</v>
+        <v>96.2</v>
       </c>
       <c r="ND19" t="n" s="10">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="NE19" t="n" s="10">
-        <v>87.4</v>
+        <v>87.9</v>
       </c>
       <c r="NF19" t="n" s="10">
-        <v>88.1</v>
+        <v>88.6</v>
       </c>
       <c r="NG19" t="n" s="10">
         <v>88.3</v>
       </c>
       <c r="NH19" t="n" s="10">
-        <v>86.8</v>
+        <v>86.9</v>
       </c>
       <c r="NI19" t="n" s="10">
-        <v>87.8</v>
+        <v>88.3</v>
       </c>
       <c r="NJ19" t="n" s="10">
-        <v>86.5</v>
-      </c>
-      <c r="NK19" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL19" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM19" t="s" s="10">
-        <v>53</v>
+        <v>87.6</v>
+      </c>
+      <c r="NK19" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="NL19" t="n" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="NM19" t="n" s="10">
+        <v>86.7</v>
       </c>
       <c r="NN19" t="s" s="10">
         <v>53</v>
@@ -23562,7 +23562,7 @@
         <v>96.3</v>
       </c>
       <c r="EP20" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="EQ20" t="n" s="10">
         <v>94.3</v>
@@ -23580,7 +23580,7 @@
         <v>93.7</v>
       </c>
       <c r="EV20" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="EW20" t="n" s="10">
         <v>94.3</v>
@@ -23610,7 +23610,7 @@
         <v>98.2</v>
       </c>
       <c r="FF20" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="FG20" t="n" s="10">
         <v>98.8</v>
@@ -23619,7 +23619,7 @@
         <v>99.0</v>
       </c>
       <c r="FI20" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="FJ20" t="n" s="10">
         <v>98.9</v>
@@ -23655,7 +23655,7 @@
         <v>98.6</v>
       </c>
       <c r="FU20" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="FV20" t="n" s="10">
         <v>99.4</v>
@@ -23691,10 +23691,10 @@
         <v>108.2</v>
       </c>
       <c r="GG20" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="GH20" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="GI20" t="n" s="10">
         <v>110.2</v>
@@ -23730,7 +23730,7 @@
         <v>111.7</v>
       </c>
       <c r="GT20" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="GU20" t="n" s="10">
         <v>112.2</v>
@@ -23745,16 +23745,16 @@
         <v>114.0</v>
       </c>
       <c r="GY20" t="n" s="10">
+        <v>114.6</v>
+      </c>
+      <c r="GZ20" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="HA20" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="GZ20" t="n" s="10">
-        <v>114.7</v>
-      </c>
-      <c r="HA20" t="n" s="10">
-        <v>114.4</v>
-      </c>
       <c r="HB20" t="n" s="10">
-        <v>113.5</v>
+        <v>113.6</v>
       </c>
       <c r="HC20" t="n" s="10">
         <v>111.9</v>
@@ -23769,34 +23769,34 @@
         <v>102.9</v>
       </c>
       <c r="HG20" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="HH20" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="HI20" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="HJ20" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="HK20" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="HL20" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="HM20" t="n" s="10">
         <v>79.1</v>
       </c>
       <c r="HN20" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="HO20" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="HP20" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="HQ20" t="n" s="10">
         <v>79.6</v>
@@ -23823,7 +23823,7 @@
         <v>93.2</v>
       </c>
       <c r="HY20" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="HZ20" t="n" s="10">
         <v>95.3</v>
@@ -23850,7 +23850,7 @@
         <v>100.9</v>
       </c>
       <c r="IH20" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="II20" t="n" s="10">
         <v>102.0</v>
@@ -23865,7 +23865,7 @@
         <v>102.0</v>
       </c>
       <c r="IM20" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="IN20" t="n" s="10">
         <v>101.4</v>
@@ -23889,7 +23889,7 @@
         <v>98.8</v>
       </c>
       <c r="IU20" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="IV20" t="n" s="10">
         <v>98.2</v>
@@ -23931,7 +23931,7 @@
         <v>96.3</v>
       </c>
       <c r="JI20" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="JJ20" t="n" s="10">
         <v>96.7</v>
@@ -23949,7 +23949,7 @@
         <v>98.4</v>
       </c>
       <c r="JO20" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="JP20" t="n" s="10">
         <v>99.2</v>
@@ -23961,19 +23961,19 @@
         <v>99.8</v>
       </c>
       <c r="JS20" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="JT20" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="JU20" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="JV20" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="JW20" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="JX20" t="n" s="10">
         <v>100.1</v>
@@ -24033,7 +24033,7 @@
         <v>98.9</v>
       </c>
       <c r="KQ20" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="KR20" t="n" s="10">
         <v>98.4</v>
@@ -24060,16 +24060,16 @@
         <v>98.4</v>
       </c>
       <c r="KZ20" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="LA20" t="n" s="10">
-        <v>98.9</v>
+        <v>99.0</v>
       </c>
       <c r="LB20" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="LC20" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="LD20" t="n" s="10">
         <v>100.1</v>
@@ -24150,7 +24150,7 @@
         <v>97.8</v>
       </c>
       <c r="MD20" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="ME20" t="n" s="10">
         <v>96.7</v>
@@ -24180,10 +24180,10 @@
         <v>86.7</v>
       </c>
       <c r="MN20" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="MO20" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="MP20" t="n" s="10">
         <v>83.7</v>
@@ -24210,52 +24210,52 @@
         <v>87.5</v>
       </c>
       <c r="MX20" t="n" s="10">
-        <v>88.6</v>
+        <v>88.4</v>
       </c>
       <c r="MY20" t="n" s="10">
-        <v>89.5</v>
+        <v>89.3</v>
       </c>
       <c r="MZ20" t="n" s="10">
+        <v>90.0</v>
+      </c>
+      <c r="NA20" t="n" s="10">
         <v>90.3</v>
       </c>
-      <c r="NA20" t="n" s="10">
-        <v>91.1</v>
-      </c>
       <c r="NB20" t="n" s="10">
-        <v>91.6</v>
+        <v>90.7</v>
       </c>
       <c r="NC20" t="n" s="10">
-        <v>91.9</v>
+        <v>91.0</v>
       </c>
       <c r="ND20" t="n" s="10">
-        <v>91.9</v>
+        <v>91.2</v>
       </c>
       <c r="NE20" t="n" s="10">
-        <v>91.3</v>
+        <v>91.0</v>
       </c>
       <c r="NF20" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="NG20" t="n" s="10">
-        <v>89.9</v>
+        <v>89.7</v>
       </c>
       <c r="NH20" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="NI20" t="n" s="10">
-        <v>88.1</v>
+        <v>88.6</v>
       </c>
       <c r="NJ20" t="n" s="10">
-        <v>87.2</v>
-      </c>
-      <c r="NK20" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL20" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM20" t="s" s="10">
-        <v>53</v>
+        <v>88.3</v>
+      </c>
+      <c r="NK20" t="n" s="10">
+        <v>88.0</v>
+      </c>
+      <c r="NL20" t="n" s="10">
+        <v>87.4</v>
+      </c>
+      <c r="NM20" t="n" s="10">
+        <v>86.5</v>
       </c>
       <c r="NN20" t="s" s="10">
         <v>53</v>
@@ -25408,16 +25408,16 @@
         <v>126.1</v>
       </c>
       <c r="NJ22" t="n" s="10">
-        <v>108.3</v>
-      </c>
-      <c r="NK22" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL22" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM22" t="s" s="10">
-        <v>53</v>
+        <v>108.5</v>
+      </c>
+      <c r="NK22" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="NL22" t="n" s="10">
+        <v>135.3</v>
+      </c>
+      <c r="NM22" t="n" s="10">
+        <v>113.5</v>
       </c>
       <c r="NN22" t="s" s="10">
         <v>53</v>
@@ -26319,19 +26319,19 @@
         <v>94.2</v>
       </c>
       <c r="KF23" t="n" s="10">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="KG23" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="KH23" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="KI23" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="KJ23" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="KK23" t="n" s="10">
         <v>93.4</v>
@@ -26352,7 +26352,7 @@
         <v>88.0</v>
       </c>
       <c r="KQ23" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="KR23" t="n" s="10">
         <v>108.9</v>
@@ -26364,7 +26364,7 @@
         <v>94.6</v>
       </c>
       <c r="KU23" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="KV23" t="n" s="10">
         <v>98.4</v>
@@ -26376,13 +26376,13 @@
         <v>111.4</v>
       </c>
       <c r="KY23" t="n" s="10">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="KZ23" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="LA23" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="LB23" t="n" s="10">
         <v>94.7</v>
@@ -26391,10 +26391,10 @@
         <v>97.4</v>
       </c>
       <c r="LD23" t="n" s="10">
-        <v>114.1</v>
+        <v>114.2</v>
       </c>
       <c r="LE23" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="LF23" t="n" s="10">
         <v>102.4</v>
@@ -26406,13 +26406,13 @@
         <v>108.3</v>
       </c>
       <c r="LI23" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="LJ23" t="n" s="10">
         <v>115.9</v>
       </c>
       <c r="LK23" t="n" s="10">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="LL23" t="n" s="10">
         <v>119.8</v>
@@ -26421,7 +26421,7 @@
         <v>122.3</v>
       </c>
       <c r="LN23" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="LO23" t="n" s="10">
         <v>102.9</v>
@@ -26436,7 +26436,7 @@
         <v>105.6</v>
       </c>
       <c r="LS23" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="LT23" t="n" s="10">
         <v>109.3</v>
@@ -26499,7 +26499,7 @@
         <v>107.1</v>
       </c>
       <c r="MN23" t="n" s="10">
-        <v>117.1</v>
+        <v>117.2</v>
       </c>
       <c r="MO23" t="n" s="10">
         <v>90.9</v>
@@ -26529,10 +26529,10 @@
         <v>117.4</v>
       </c>
       <c r="MX23" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="MY23" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="MZ23" t="n" s="10">
         <v>124.7</v>
@@ -26565,16 +26565,16 @@
         <v>122.0</v>
       </c>
       <c r="NJ23" t="n" s="10">
-        <v>110.2</v>
-      </c>
-      <c r="NK23" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL23" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM23" t="s" s="10">
-        <v>53</v>
+        <v>110.4</v>
+      </c>
+      <c r="NK23" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="NL23" t="n" s="10">
+        <v>129.6</v>
+      </c>
+      <c r="NM23" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="NN23" t="s" s="10">
         <v>53</v>
@@ -27479,19 +27479,19 @@
         <v>100.2</v>
       </c>
       <c r="KG24" t="n" s="10">
-        <v>98.6</v>
+        <v>98.3</v>
       </c>
       <c r="KH24" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="KI24" t="n" s="10">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="KJ24" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="KK24" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="KL24" t="n" s="10">
         <v>100.6</v>
@@ -27503,7 +27503,7 @@
         <v>97.8</v>
       </c>
       <c r="KO24" t="n" s="10">
-        <v>105.3</v>
+        <v>105.5</v>
       </c>
       <c r="KP24" t="n" s="10">
         <v>98.0</v>
@@ -27515,223 +27515,223 @@
         <v>100.2</v>
       </c>
       <c r="KS24" t="n" s="10">
-        <v>98.9</v>
+        <v>98.6</v>
       </c>
       <c r="KT24" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="KU24" t="n" s="10">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="KV24" t="n" s="10">
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="KW24" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="KX24" t="n" s="10">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="KY24" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="KZ24" t="n" s="10">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="LA24" t="n" s="10">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="LB24" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="LC24" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="LD24" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="LE24" t="n" s="10">
-        <v>108.0</v>
+        <v>107.5</v>
       </c>
       <c r="LF24" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="LG24" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="LH24" t="n" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="LI24" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="LJ24" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="LK24" t="n" s="10">
+        <v>108.4</v>
+      </c>
+      <c r="LL24" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="LM24" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="LN24" t="n" s="10">
+        <v>109.8</v>
+      </c>
+      <c r="LO24" t="n" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="LP24" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="LQ24" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="LR24" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="LS24" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="LT24" t="n" s="10">
+        <v>110.7</v>
+      </c>
+      <c r="LU24" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="LV24" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="LW24" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="LX24" t="n" s="10">
+        <v>111.8</v>
+      </c>
+      <c r="LY24" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="LZ24" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="MA24" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="MB24" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="MC24" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="MD24" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="ME24" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="MF24" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="MG24" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="MH24" t="n" s="10">
+        <v>118.1</v>
+      </c>
+      <c r="MI24" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="MJ24" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="MK24" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="ML24" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="MM24" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="MN24" t="n" s="10">
         <v>107.2</v>
       </c>
-      <c r="LH24" t="n" s="10">
-        <v>110.0</v>
-      </c>
-      <c r="LI24" t="n" s="10">
-        <v>109.1</v>
-      </c>
-      <c r="LJ24" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="LK24" t="n" s="10">
-        <v>108.3</v>
-      </c>
-      <c r="LL24" t="n" s="10">
-        <v>112.0</v>
-      </c>
-      <c r="LM24" t="n" s="10">
-        <v>119.3</v>
-      </c>
-      <c r="LN24" t="n" s="10">
-        <v>109.9</v>
-      </c>
-      <c r="LO24" t="n" s="10">
-        <v>109.1</v>
-      </c>
-      <c r="LP24" t="n" s="10">
-        <v>110.6</v>
-      </c>
-      <c r="LQ24" t="n" s="10">
-        <v>107.4</v>
-      </c>
-      <c r="LR24" t="n" s="10">
-        <v>110.3</v>
-      </c>
-      <c r="LS24" t="n" s="10">
-        <v>111.0</v>
-      </c>
-      <c r="LT24" t="n" s="10">
-        <v>111.3</v>
-      </c>
-      <c r="LU24" t="n" s="10">
-        <v>111.5</v>
-      </c>
-      <c r="LV24" t="n" s="10">
-        <v>111.6</v>
-      </c>
-      <c r="LW24" t="n" s="10">
-        <v>111.6</v>
-      </c>
-      <c r="LX24" t="n" s="10">
-        <v>111.2</v>
-      </c>
-      <c r="LY24" t="n" s="10">
+      <c r="MO24" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="MP24" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="MQ24" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="MR24" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="MS24" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="MT24" t="n" s="10">
+        <v>104.2</v>
+      </c>
+      <c r="MU24" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="MV24" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="MW24" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="MX24" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="MY24" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="MZ24" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="LZ24" t="n" s="10">
-        <v>113.1</v>
-      </c>
-      <c r="MA24" t="n" s="10">
-        <v>111.6</v>
-      </c>
-      <c r="MB24" t="n" s="10">
+      <c r="NA24" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="NB24" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="NC24" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="ND24" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="MC24" t="n" s="10">
-        <v>113.1</v>
-      </c>
-      <c r="MD24" t="n" s="10">
-        <v>114.2</v>
-      </c>
-      <c r="ME24" t="n" s="10">
-        <v>113.9</v>
-      </c>
-      <c r="MF24" t="n" s="10">
-        <v>113.6</v>
-      </c>
-      <c r="MG24" t="n" s="10">
-        <v>116.0</v>
-      </c>
-      <c r="MH24" t="n" s="10">
-        <v>115.7</v>
-      </c>
-      <c r="MI24" t="n" s="10">
+      <c r="NE24" t="n" s="10">
+        <v>116.1</v>
+      </c>
+      <c r="NF24" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="MJ24" t="n" s="10">
-        <v>110.6</v>
-      </c>
-      <c r="MK24" t="n" s="10">
-        <v>112.7</v>
-      </c>
-      <c r="ML24" t="n" s="10">
-        <v>115.2</v>
-      </c>
-      <c r="MM24" t="n" s="10">
-        <v>113.6</v>
-      </c>
-      <c r="MN24" t="n" s="10">
-        <v>107.6</v>
-      </c>
-      <c r="MO24" t="n" s="10">
-        <v>95.2</v>
-      </c>
-      <c r="MP24" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="MQ24" t="n" s="10">
-        <v>100.1</v>
-      </c>
-      <c r="MR24" t="n" s="10">
-        <v>101.3</v>
-      </c>
-      <c r="MS24" t="n" s="10">
-        <v>103.8</v>
-      </c>
-      <c r="MT24" t="n" s="10">
-        <v>101.6</v>
-      </c>
-      <c r="MU24" t="n" s="10">
-        <v>108.2</v>
-      </c>
-      <c r="MV24" t="n" s="10">
-        <v>112.2</v>
-      </c>
-      <c r="MW24" t="n" s="10">
-        <v>113.1</v>
-      </c>
-      <c r="MX24" t="n" s="10">
-        <v>115.0</v>
-      </c>
-      <c r="MY24" t="n" s="10">
-        <v>116.6</v>
-      </c>
-      <c r="MZ24" t="n" s="10">
-        <v>114.5</v>
-      </c>
-      <c r="NA24" t="n" s="10">
-        <v>118.7</v>
-      </c>
-      <c r="NB24" t="n" s="10">
-        <v>118.1</v>
-      </c>
-      <c r="NC24" t="n" s="10">
-        <v>116.9</v>
-      </c>
-      <c r="ND24" t="n" s="10">
-        <v>118.8</v>
-      </c>
-      <c r="NE24" t="n" s="10">
-        <v>116.2</v>
-      </c>
-      <c r="NF24" t="n" s="10">
-        <v>110.8</v>
-      </c>
       <c r="NG24" t="n" s="10">
-        <v>114.9</v>
+        <v>115.5</v>
       </c>
       <c r="NH24" t="n" s="10">
-        <v>113.1</v>
+        <v>114.3</v>
       </c>
       <c r="NI24" t="n" s="10">
-        <v>117.3</v>
+        <v>117.6</v>
       </c>
       <c r="NJ24" t="n" s="10">
-        <v>119.8</v>
-      </c>
-      <c r="NK24" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL24" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM24" t="s" s="10">
-        <v>53</v>
+        <v>119.5</v>
+      </c>
+      <c r="NK24" t="n" s="10">
+        <v>120.9</v>
+      </c>
+      <c r="NL24" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="NM24" t="n" s="10">
+        <v>121.1</v>
       </c>
       <c r="NN24" t="s" s="10">
         <v>53</v>
@@ -28630,7 +28630,7 @@
         <v>99.2</v>
       </c>
       <c r="KE25" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="KF25" t="n" s="10">
         <v>100.0</v>
@@ -28639,13 +28639,13 @@
         <v>99.0</v>
       </c>
       <c r="KH25" t="n" s="10">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="KI25" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="KJ25" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="KK25" t="n" s="10">
         <v>98.4</v>
@@ -28654,10 +28654,10 @@
         <v>99.9</v>
       </c>
       <c r="KM25" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="KN25" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KO25" t="n" s="10">
         <v>102.3</v>
@@ -28669,10 +28669,10 @@
         <v>100.6</v>
       </c>
       <c r="KR25" t="n" s="10">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="KS25" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="KT25" t="n" s="10">
         <v>99.7</v>
@@ -28681,22 +28681,22 @@
         <v>102.2</v>
       </c>
       <c r="KV25" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="KW25" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="KX25" t="n" s="10">
         <v>104.2</v>
       </c>
       <c r="KY25" t="n" s="10">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="KZ25" t="n" s="10">
         <v>103.3</v>
       </c>
       <c r="LA25" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="LB25" t="n" s="10">
         <v>105.1</v>
@@ -28705,28 +28705,28 @@
         <v>104.8</v>
       </c>
       <c r="LD25" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="LE25" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="LF25" t="n" s="10">
         <v>108.4</v>
       </c>
       <c r="LG25" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="LH25" t="n" s="10">
         <v>109.8</v>
       </c>
       <c r="LI25" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="LJ25" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="LK25" t="n" s="10">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="LL25" t="n" s="10">
         <v>112.2</v>
@@ -28747,19 +28747,19 @@
         <v>109.3</v>
       </c>
       <c r="LR25" t="n" s="10">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="LS25" t="n" s="10">
         <v>112.5</v>
       </c>
       <c r="LT25" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="LU25" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="LV25" t="n" s="10">
         <v>111.1</v>
-      </c>
-      <c r="LU25" t="n" s="10">
-        <v>111.3</v>
-      </c>
-      <c r="LV25" t="n" s="10">
-        <v>111.2</v>
       </c>
       <c r="LW25" t="n" s="10">
         <v>112.4</v>
@@ -28768,7 +28768,7 @@
         <v>112.0</v>
       </c>
       <c r="LY25" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="LZ25" t="n" s="10">
         <v>112.4</v>
@@ -28786,16 +28786,16 @@
         <v>117.6</v>
       </c>
       <c r="ME25" t="n" s="10">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="MF25" t="n" s="10">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="MG25" t="n" s="10">
         <v>115.6</v>
       </c>
       <c r="MH25" t="n" s="10">
-        <v>116.0</v>
+        <v>116.1</v>
       </c>
       <c r="MI25" t="n" s="10">
         <v>113.3</v>
@@ -28804,10 +28804,10 @@
         <v>110.1</v>
       </c>
       <c r="MK25" t="n" s="10">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="ML25" t="n" s="10">
-        <v>111.6</v>
+        <v>111.7</v>
       </c>
       <c r="MM25" t="n" s="10">
         <v>109.5</v>
@@ -28819,76 +28819,76 @@
         <v>95.9</v>
       </c>
       <c r="MP25" t="n" s="10">
-        <v>100.0</v>
+        <v>99.7</v>
       </c>
       <c r="MQ25" t="n" s="10">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="MR25" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="MS25" t="n" s="10">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="MT25" t="n" s="10">
-        <v>104.7</v>
+        <v>105.0</v>
       </c>
       <c r="MU25" t="n" s="10">
-        <v>108.4</v>
+        <v>108.8</v>
       </c>
       <c r="MV25" t="n" s="10">
-        <v>112.2</v>
+        <v>112.6</v>
       </c>
       <c r="MW25" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="MX25" t="n" s="10">
         <v>110.7</v>
       </c>
-      <c r="MX25" t="n" s="10">
-        <v>110.0</v>
-      </c>
       <c r="MY25" t="n" s="10">
-        <v>113.2</v>
+        <v>113.1</v>
       </c>
       <c r="MZ25" t="n" s="10">
-        <v>115.5</v>
+        <v>115.1</v>
       </c>
       <c r="NA25" t="n" s="10">
-        <v>117.5</v>
+        <v>116.8</v>
       </c>
       <c r="NB25" t="n" s="10">
-        <v>121.5</v>
+        <v>120.7</v>
       </c>
       <c r="NC25" t="n" s="10">
-        <v>120.2</v>
+        <v>119.5</v>
       </c>
       <c r="ND25" t="n" s="10">
-        <v>119.9</v>
+        <v>119.5</v>
       </c>
       <c r="NE25" t="n" s="10">
-        <v>117.3</v>
+        <v>117.6</v>
       </c>
       <c r="NF25" t="n" s="10">
-        <v>116.2</v>
+        <v>116.8</v>
       </c>
       <c r="NG25" t="n" s="10">
-        <v>114.7</v>
+        <v>115.0</v>
       </c>
       <c r="NH25" t="n" s="10">
-        <v>112.9</v>
+        <v>113.1</v>
       </c>
       <c r="NI25" t="n" s="10">
-        <v>115.4</v>
+        <v>116.4</v>
       </c>
       <c r="NJ25" t="n" s="10">
-        <v>115.3</v>
-      </c>
-      <c r="NK25" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL25" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM25" t="s" s="10">
-        <v>53</v>
+        <v>117.1</v>
+      </c>
+      <c r="NK25" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="NL25" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="NM25" t="n" s="10">
+        <v>118.3</v>
       </c>
       <c r="NN25" t="s" s="10">
         <v>53</v>
@@ -29355,7 +29355,7 @@
         <v>48.1</v>
       </c>
       <c r="EQ26" t="n" s="10">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="ER26" t="n" s="10">
         <v>48.5</v>
@@ -29394,7 +29394,7 @@
         <v>52.8</v>
       </c>
       <c r="FD26" t="n" s="10">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="FE26" t="n" s="10">
         <v>53.7</v>
@@ -29409,13 +29409,13 @@
         <v>54.9</v>
       </c>
       <c r="FI26" t="n" s="10">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="FJ26" t="n" s="10">
         <v>55.6</v>
       </c>
       <c r="FK26" t="n" s="10">
-        <v>56.0</v>
+        <v>56.1</v>
       </c>
       <c r="FL26" t="n" s="10">
         <v>56.5</v>
@@ -29451,10 +29451,10 @@
         <v>65.7</v>
       </c>
       <c r="FW26" t="n" s="10">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="FX26" t="n" s="10">
-        <v>67.9</v>
+        <v>67.8</v>
       </c>
       <c r="FY26" t="n" s="10">
         <v>68.9</v>
@@ -29469,10 +29469,10 @@
         <v>71.8</v>
       </c>
       <c r="GC26" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="GD26" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="GE26" t="n" s="10">
         <v>74.5</v>
@@ -29484,7 +29484,7 @@
         <v>76.1</v>
       </c>
       <c r="GH26" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="GI26" t="n" s="10">
         <v>77.5</v>
@@ -29496,7 +29496,7 @@
         <v>79.1</v>
       </c>
       <c r="GL26" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="GM26" t="n" s="10">
         <v>81.1</v>
@@ -29538,10 +29538,10 @@
         <v>93.3</v>
       </c>
       <c r="GZ26" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="HA26" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="HB26" t="n" s="10">
         <v>93.7</v>
@@ -29550,7 +29550,7 @@
         <v>93.1</v>
       </c>
       <c r="HD26" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="HE26" t="n" s="10">
         <v>90.6</v>
@@ -29601,16 +29601,16 @@
         <v>72.6</v>
       </c>
       <c r="HU26" t="n" s="10">
-        <v>73.8</v>
+        <v>73.9</v>
       </c>
       <c r="HV26" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="HW26" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="HX26" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="HY26" t="n" s="10">
         <v>79.4</v>
@@ -29619,7 +29619,7 @@
         <v>80.7</v>
       </c>
       <c r="IA26" t="n" s="10">
-        <v>81.9</v>
+        <v>82.0</v>
       </c>
       <c r="IB26" t="n" s="10">
         <v>83.2</v>
@@ -29634,7 +29634,7 @@
         <v>87.1</v>
       </c>
       <c r="IF26" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="IG26" t="n" s="10">
         <v>89.6</v>
@@ -29664,7 +29664,7 @@
         <v>95.4</v>
       </c>
       <c r="IP26" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="IQ26" t="n" s="10">
         <v>95.6</v>
@@ -29742,16 +29742,16 @@
         <v>93.2</v>
       </c>
       <c r="JP26" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="JQ26" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="JR26" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="JS26" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="JT26" t="n" s="10">
         <v>95.1</v>
@@ -29805,13 +29805,13 @@
         <v>99.7</v>
       </c>
       <c r="KK26" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KL26" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="KM26" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="KN26" t="n" s="10">
         <v>99.9</v>
@@ -29850,7 +29850,7 @@
         <v>103.3</v>
       </c>
       <c r="KZ26" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="LA26" t="n" s="10">
         <v>104.2</v>
@@ -29859,7 +29859,7 @@
         <v>104.8</v>
       </c>
       <c r="LC26" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="LD26" t="n" s="10">
         <v>106.2</v>
@@ -29892,7 +29892,7 @@
         <v>111.1</v>
       </c>
       <c r="LN26" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="LO26" t="n" s="10">
         <v>111.1</v>
@@ -29901,7 +29901,7 @@
         <v>111.1</v>
       </c>
       <c r="LQ26" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="LR26" t="n" s="10">
         <v>111.1</v>
@@ -29958,25 +29958,25 @@
         <v>112.8</v>
       </c>
       <c r="MJ26" t="n" s="10">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="MK26" t="n" s="10">
         <v>110.4</v>
       </c>
       <c r="ML26" t="n" s="10">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="MM26" t="n" s="10">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="MN26" t="n" s="10">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="MO26" t="n" s="10">
         <v>105.6</v>
       </c>
       <c r="MP26" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="MQ26" t="n" s="10">
         <v>104.7</v>
@@ -30000,52 +30000,52 @@
         <v>110.9</v>
       </c>
       <c r="MX26" t="n" s="10">
-        <v>112.5</v>
+        <v>112.3</v>
       </c>
       <c r="MY26" t="n" s="10">
-        <v>113.9</v>
+        <v>113.7</v>
       </c>
       <c r="MZ26" t="n" s="10">
-        <v>115.3</v>
+        <v>114.8</v>
       </c>
       <c r="NA26" t="n" s="10">
-        <v>116.5</v>
+        <v>115.5</v>
       </c>
       <c r="NB26" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="NC26" t="n" s="10">
+        <v>117.0</v>
+      </c>
+      <c r="ND26" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="NC26" t="n" s="10">
-        <v>118.3</v>
-      </c>
-      <c r="ND26" t="n" s="10">
-        <v>118.7</v>
-      </c>
       <c r="NE26" t="n" s="10">
-        <v>118.3</v>
+        <v>117.9</v>
       </c>
       <c r="NF26" t="n" s="10">
         <v>118.0</v>
       </c>
       <c r="NG26" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="NH26" t="n" s="10">
+        <v>117.2</v>
+      </c>
+      <c r="NI26" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="NH26" t="n" s="10">
-        <v>117.1</v>
-      </c>
-      <c r="NI26" t="n" s="10">
-        <v>116.3</v>
-      </c>
       <c r="NJ26" t="n" s="10">
-        <v>115.6</v>
-      </c>
-      <c r="NK26" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL26" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM26" t="s" s="10">
-        <v>53</v>
+        <v>118.0</v>
+      </c>
+      <c r="NK26" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="NL26" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="NM26" t="n" s="10">
+        <v>118.3</v>
       </c>
       <c r="NN26" t="s" s="10">
         <v>53</v>
@@ -31198,16 +31198,16 @@
         <v>94.8</v>
       </c>
       <c r="NJ28" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="NK28" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL28" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM28" t="s" s="10">
-        <v>53</v>
+        <v>95.6</v>
+      </c>
+      <c r="NK28" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="NL28" t="n" s="10">
+        <v>116.3</v>
+      </c>
+      <c r="NM28" t="n" s="10">
+        <v>98.0</v>
       </c>
       <c r="NN28" t="s" s="10">
         <v>53</v>
@@ -32142,10 +32142,10 @@
         <v>95.1</v>
       </c>
       <c r="KQ29" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="KR29" t="n" s="10">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="KS29" t="n" s="10">
         <v>99.0</v>
@@ -32154,7 +32154,7 @@
         <v>95.5</v>
       </c>
       <c r="KU29" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="KV29" t="n" s="10">
         <v>103.0</v>
@@ -32163,7 +32163,7 @@
         <v>97.9</v>
       </c>
       <c r="KX29" t="n" s="10">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="KY29" t="n" s="10">
         <v>105.2</v>
@@ -32172,7 +32172,7 @@
         <v>107.9</v>
       </c>
       <c r="LA29" t="n" s="10">
-        <v>88.8</v>
+        <v>88.6</v>
       </c>
       <c r="LB29" t="n" s="10">
         <v>96.8</v>
@@ -32235,7 +32235,7 @@
         <v>104.4</v>
       </c>
       <c r="LV29" t="n" s="10">
-        <v>114.0</v>
+        <v>113.9</v>
       </c>
       <c r="LW29" t="n" s="10">
         <v>112.5</v>
@@ -32244,7 +32244,7 @@
         <v>111.4</v>
       </c>
       <c r="LY29" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="LZ29" t="n" s="10">
         <v>98.7</v>
@@ -32280,7 +32280,7 @@
         <v>105.3</v>
       </c>
       <c r="MK29" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="ML29" t="n" s="10">
         <v>95.0</v>
@@ -32316,7 +32316,7 @@
         <v>104.0</v>
       </c>
       <c r="MW29" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="MX29" t="n" s="10">
         <v>96.4</v>
@@ -32337,7 +32337,7 @@
         <v>105.2</v>
       </c>
       <c r="ND29" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="NE29" t="n" s="10">
         <v>100.2</v>
@@ -32352,19 +32352,19 @@
         <v>104.6</v>
       </c>
       <c r="NI29" t="n" s="10">
-        <v>89.9</v>
+        <v>89.7</v>
       </c>
       <c r="NJ29" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="NK29" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL29" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM29" t="s" s="10">
-        <v>53</v>
+        <v>97.8</v>
+      </c>
+      <c r="NK29" t="n" s="10">
+        <v>102.4</v>
+      </c>
+      <c r="NL29" t="n" s="10">
+        <v>110.0</v>
+      </c>
+      <c r="NM29" t="n" s="10">
+        <v>101.5</v>
       </c>
       <c r="NN29" t="s" s="10">
         <v>53</v>
@@ -33260,10 +33260,10 @@
         <v>104.2</v>
       </c>
       <c r="KD30" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="KE30" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KF30" t="n" s="10">
         <v>99.7</v>
@@ -33272,256 +33272,256 @@
         <v>100.0</v>
       </c>
       <c r="KH30" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KI30" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="KJ30" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="KK30" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="KL30" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="KM30" t="n" s="10">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="KN30" t="n" s="10">
-        <v>98.6</v>
+        <v>98.8</v>
       </c>
       <c r="KO30" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="KP30" t="n" s="10">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="KQ30" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="KR30" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="KS30" t="n" s="10">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="KT30" t="n" s="10">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="KU30" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="KV30" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="KW30" t="n" s="10">
         <v>101.0</v>
       </c>
-      <c r="KV30" t="n" s="10">
-        <v>101.0</v>
-      </c>
-      <c r="KW30" t="n" s="10">
+      <c r="KX30" t="n" s="10">
         <v>101.1</v>
       </c>
-      <c r="KX30" t="n" s="10">
-        <v>101.0</v>
-      </c>
       <c r="KY30" t="n" s="10">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="KZ30" t="n" s="10">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="LA30" t="n" s="10">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="LB30" t="n" s="10">
-        <v>102.0</v>
+        <v>102.2</v>
       </c>
       <c r="LC30" t="n" s="10">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="LD30" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="LE30" t="n" s="10">
-        <v>105.7</v>
+        <v>105.3</v>
       </c>
       <c r="LF30" t="n" s="10">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="LG30" t="n" s="10">
-        <v>105.2</v>
+        <v>104.8</v>
       </c>
       <c r="LH30" t="n" s="10">
-        <v>107.9</v>
+        <v>107.5</v>
       </c>
       <c r="LI30" t="n" s="10">
-        <v>107.5</v>
+        <v>107.3</v>
       </c>
       <c r="LJ30" t="n" s="10">
-        <v>107.6</v>
+        <v>107.8</v>
       </c>
       <c r="LK30" t="n" s="10">
-        <v>104.3</v>
+        <v>104.7</v>
       </c>
       <c r="LL30" t="n" s="10">
-        <v>108.7</v>
+        <v>109.2</v>
       </c>
       <c r="LM30" t="n" s="10">
         <v>109.5</v>
       </c>
       <c r="LN30" t="n" s="10">
-        <v>108.6</v>
+        <v>108.9</v>
       </c>
       <c r="LO30" t="n" s="10">
-        <v>107.5</v>
+        <v>107.7</v>
       </c>
       <c r="LP30" t="n" s="10">
-        <v>108.2</v>
+        <v>108.4</v>
       </c>
       <c r="LQ30" t="n" s="10">
-        <v>107.2</v>
+        <v>106.8</v>
       </c>
       <c r="LR30" t="n" s="10">
-        <v>108.9</v>
+        <v>108.5</v>
       </c>
       <c r="LS30" t="n" s="10">
-        <v>109.5</v>
+        <v>108.8</v>
       </c>
       <c r="LT30" t="n" s="10">
-        <v>107.0</v>
+        <v>106.5</v>
       </c>
       <c r="LU30" t="n" s="10">
-        <v>108.0</v>
+        <v>107.6</v>
       </c>
       <c r="LV30" t="n" s="10">
-        <v>107.4</v>
+        <v>107.8</v>
       </c>
       <c r="LW30" t="n" s="10">
-        <v>107.1</v>
+        <v>107.7</v>
       </c>
       <c r="LX30" t="n" s="10">
-        <v>104.7</v>
+        <v>105.5</v>
       </c>
       <c r="LY30" t="n" s="10">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="LZ30" t="n" s="10">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="MA30" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="MB30" t="n" s="10">
-        <v>104.3</v>
+        <v>104.6</v>
       </c>
       <c r="MC30" t="n" s="10">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="MD30" t="n" s="10">
-        <v>102.3</v>
+        <v>101.9</v>
       </c>
       <c r="ME30" t="n" s="10">
-        <v>100.6</v>
+        <v>99.9</v>
       </c>
       <c r="MF30" t="n" s="10">
-        <v>99.7</v>
+        <v>99.1</v>
       </c>
       <c r="MG30" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="MH30" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="MI30" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="MJ30" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="MK30" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="ML30" t="n" s="10">
         <v>99.8</v>
-      </c>
-      <c r="MH30" t="n" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="MI30" t="n" s="10">
-        <v>98.8</v>
-      </c>
-      <c r="MJ30" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="MK30" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="ML30" t="n" s="10">
-        <v>99.5</v>
       </c>
       <c r="MM30" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="MN30" t="n" s="10">
-        <v>92.6</v>
+        <v>92.9</v>
       </c>
       <c r="MO30" t="n" s="10">
-        <v>80.1</v>
+        <v>79.5</v>
       </c>
       <c r="MP30" t="n" s="10">
-        <v>85.5</v>
+        <v>85.1</v>
       </c>
       <c r="MQ30" t="n" s="10">
-        <v>88.2</v>
+        <v>87.5</v>
       </c>
       <c r="MR30" t="n" s="10">
-        <v>89.8</v>
+        <v>89.2</v>
       </c>
       <c r="MS30" t="n" s="10">
-        <v>91.9</v>
+        <v>91.5</v>
       </c>
       <c r="MT30" t="n" s="10">
-        <v>93.4</v>
+        <v>94.0</v>
       </c>
       <c r="MU30" t="n" s="10">
-        <v>96.1</v>
+        <v>96.9</v>
       </c>
       <c r="MV30" t="n" s="10">
-        <v>97.7</v>
+        <v>98.8</v>
       </c>
       <c r="MW30" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="MX30" t="n" s="10">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="MY30" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="MZ30" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="NA30" t="n" s="10">
+        <v>103.5</v>
+      </c>
+      <c r="NB30" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="NC30" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="ND30" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="NE30" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="NF30" t="n" s="10">
+        <v>100.3</v>
+      </c>
+      <c r="NG30" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="NH30" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="NI30" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="NJ30" t="n" s="10">
+        <v>102.5</v>
+      </c>
+      <c r="NK30" t="n" s="10">
+        <v>104.1</v>
+      </c>
+      <c r="NL30" t="n" s="10">
         <v>101.5</v>
       </c>
-      <c r="MZ30" t="n" s="10">
-        <v>101.2</v>
-      </c>
-      <c r="NA30" t="n" s="10">
-        <v>104.4</v>
-      </c>
-      <c r="NB30" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="NC30" t="n" s="10">
-        <v>105.0</v>
-      </c>
-      <c r="ND30" t="n" s="10">
-        <v>104.6</v>
-      </c>
-      <c r="NE30" t="n" s="10">
-        <v>103.8</v>
-      </c>
-      <c r="NF30" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="NG30" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="NH30" t="n" s="10">
-        <v>98.2</v>
-      </c>
-      <c r="NI30" t="n" s="10">
-        <v>102.4</v>
-      </c>
-      <c r="NJ30" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="NK30" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL30" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM30" t="s" s="10">
-        <v>53</v>
+      <c r="NM30" t="n" s="10">
+        <v>103.3</v>
       </c>
       <c r="NN30" t="s" s="10">
         <v>53</v>
@@ -34426,7 +34426,7 @@
         <v>100.9</v>
       </c>
       <c r="KG31" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="KH31" t="n" s="10">
         <v>100.4</v>
@@ -34441,55 +34441,55 @@
         <v>100.2</v>
       </c>
       <c r="KL31" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="KM31" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="KN31" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KO31" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="KP31" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="KQ31" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KR31" t="n" s="10">
         <v>99.4</v>
       </c>
       <c r="KS31" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="KT31" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="KU31" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KV31" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="KW31" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="KX31" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="KY31" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="KZ31" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="LA31" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="LB31" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="LC31" t="n" s="10">
         <v>103.5</v>
@@ -34501,10 +34501,10 @@
         <v>104.4</v>
       </c>
       <c r="LF31" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="LG31" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="LH31" t="n" s="10">
         <v>107.1</v>
@@ -34525,16 +34525,16 @@
         <v>109.6</v>
       </c>
       <c r="LN31" t="n" s="10">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="LO31" t="n" s="10">
         <v>108.1</v>
       </c>
       <c r="LP31" t="n" s="10">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="LQ31" t="n" s="10">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="LR31" t="n" s="10">
         <v>109.0</v>
@@ -34546,7 +34546,7 @@
         <v>107.3</v>
       </c>
       <c r="LU31" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="LV31" t="n" s="10">
         <v>106.4</v>
@@ -34570,28 +34570,28 @@
         <v>103.0</v>
       </c>
       <c r="MC31" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="MD31" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="ME31" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="MF31" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="MG31" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="MH31" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="MI31" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="MJ31" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="MK31" t="n" s="10">
         <v>96.3</v>
@@ -34600,7 +34600,7 @@
         <v>96.9</v>
       </c>
       <c r="MM31" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="MN31" t="n" s="10">
         <v>92.7</v>
@@ -34609,76 +34609,76 @@
         <v>80.7</v>
       </c>
       <c r="MP31" t="n" s="10">
-        <v>88.8</v>
+        <v>88.6</v>
       </c>
       <c r="MQ31" t="n" s="10">
-        <v>90.3</v>
+        <v>90.1</v>
       </c>
       <c r="MR31" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="MS31" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="MT31" t="n" s="10">
-        <v>94.1</v>
+        <v>94.3</v>
       </c>
       <c r="MU31" t="n" s="10">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="MV31" t="n" s="10">
-        <v>98.7</v>
+        <v>99.1</v>
       </c>
       <c r="MW31" t="n" s="10">
-        <v>97.6</v>
+        <v>98.2</v>
       </c>
       <c r="MX31" t="n" s="10">
-        <v>97.7</v>
+        <v>98.4</v>
       </c>
       <c r="MY31" t="n" s="10">
         <v>99.8</v>
       </c>
       <c r="MZ31" t="n" s="10">
+        <v>102.9</v>
+      </c>
+      <c r="NA31" t="n" s="10">
         <v>103.1</v>
       </c>
-      <c r="NA31" t="n" s="10">
-        <v>103.7</v>
-      </c>
       <c r="NB31" t="n" s="10">
-        <v>106.9</v>
+        <v>106.2</v>
       </c>
       <c r="NC31" t="n" s="10">
-        <v>106.9</v>
+        <v>106.2</v>
       </c>
       <c r="ND31" t="n" s="10">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="NE31" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="NF31" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="NG31" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="NH31" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="NI31" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="NJ31" t="n" s="10">
+        <v>101.5</v>
+      </c>
+      <c r="NK31" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="NL31" t="n" s="10">
         <v>101.7</v>
       </c>
-      <c r="NG31" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="NH31" t="n" s="10">
-        <v>98.1</v>
-      </c>
-      <c r="NI31" t="n" s="10">
-        <v>100.3</v>
-      </c>
-      <c r="NJ31" t="n" s="10">
-        <v>101.2</v>
-      </c>
-      <c r="NK31" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL31" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM31" t="s" s="10">
-        <v>53</v>
+      <c r="NM31" t="n" s="10">
+        <v>101.7</v>
       </c>
       <c r="NN31" t="s" s="10">
         <v>53</v>
@@ -35163,13 +35163,13 @@
         <v>83.2</v>
       </c>
       <c r="EW32" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="EX32" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="EY32" t="n" s="10">
-        <v>84.6</v>
+        <v>84.5</v>
       </c>
       <c r="EZ32" t="n" s="10">
         <v>84.9</v>
@@ -35181,7 +35181,7 @@
         <v>85.6</v>
       </c>
       <c r="FC32" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="FD32" t="n" s="10">
         <v>86.2</v>
@@ -35211,7 +35211,7 @@
         <v>87.1</v>
       </c>
       <c r="FM32" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="FN32" t="n" s="10">
         <v>87.6</v>
@@ -35220,16 +35220,16 @@
         <v>87.9</v>
       </c>
       <c r="FP32" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="FQ32" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="FR32" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="FS32" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="FT32" t="n" s="10">
         <v>89.7</v>
@@ -35310,25 +35310,25 @@
         <v>104.8</v>
       </c>
       <c r="GT32" t="n" s="10">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="GU32" t="n" s="10">
-        <v>105.8</v>
+        <v>105.7</v>
       </c>
       <c r="GV32" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="GW32" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="GX32" t="n" s="10">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="GY32" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="GZ32" t="n" s="10">
         <v>107.9</v>
-      </c>
-      <c r="GZ32" t="n" s="10">
-        <v>108.0</v>
       </c>
       <c r="HA32" t="n" s="10">
         <v>107.7</v>
@@ -35340,52 +35340,52 @@
         <v>105.9</v>
       </c>
       <c r="HD32" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="HE32" t="n" s="10">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="HF32" t="n" s="10">
-        <v>99.6</v>
+        <v>99.9</v>
       </c>
       <c r="HG32" t="n" s="10">
-        <v>96.9</v>
+        <v>97.2</v>
       </c>
       <c r="HH32" t="n" s="10">
-        <v>94.0</v>
+        <v>94.4</v>
       </c>
       <c r="HI32" t="n" s="10">
-        <v>91.2</v>
+        <v>91.6</v>
       </c>
       <c r="HJ32" t="n" s="10">
-        <v>88.5</v>
+        <v>88.9</v>
       </c>
       <c r="HK32" t="n" s="10">
-        <v>86.1</v>
+        <v>86.5</v>
       </c>
       <c r="HL32" t="n" s="10">
-        <v>84.1</v>
+        <v>84.5</v>
       </c>
       <c r="HM32" t="n" s="10">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="HN32" t="n" s="10">
+        <v>81.6</v>
+      </c>
+      <c r="HO32" t="n" s="10">
+        <v>81.0</v>
+      </c>
+      <c r="HP32" t="n" s="10">
+        <v>80.9</v>
+      </c>
+      <c r="HQ32" t="n" s="10">
         <v>81.3</v>
       </c>
-      <c r="HO32" t="n" s="10">
-        <v>80.7</v>
-      </c>
-      <c r="HP32" t="n" s="10">
-        <v>80.7</v>
-      </c>
-      <c r="HQ32" t="n" s="10">
-        <v>81.2</v>
-      </c>
       <c r="HR32" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="HS32" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="HT32" t="n" s="10">
         <v>85.0</v>
@@ -35394,7 +35394,7 @@
         <v>86.8</v>
       </c>
       <c r="HV32" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="HW32" t="n" s="10">
         <v>90.3</v>
@@ -35403,19 +35403,19 @@
         <v>92.0</v>
       </c>
       <c r="HY32" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="HZ32" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="IA32" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="IB32" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="IC32" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="ID32" t="n" s="10">
         <v>99.6</v>
@@ -35424,13 +35424,13 @@
         <v>100.5</v>
       </c>
       <c r="IF32" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="IG32" t="n" s="10">
         <v>102.1</v>
       </c>
       <c r="IH32" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="II32" t="n" s="10">
         <v>103.5</v>
@@ -35460,7 +35460,7 @@
         <v>105.1</v>
       </c>
       <c r="IR32" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="IS32" t="n" s="10">
         <v>104.7</v>
@@ -35505,10 +35505,10 @@
         <v>99.8</v>
       </c>
       <c r="JG32" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="JH32" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="JI32" t="n" s="10">
         <v>99.0</v>
@@ -35523,7 +35523,7 @@
         <v>99.0</v>
       </c>
       <c r="JM32" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="JN32" t="n" s="10">
         <v>99.3</v>
@@ -35553,7 +35553,7 @@
         <v>100.5</v>
       </c>
       <c r="JW32" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="JX32" t="n" s="10">
         <v>100.8</v>
@@ -35613,10 +35613,10 @@
         <v>99.8</v>
       </c>
       <c r="KQ32" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="KR32" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="KS32" t="n" s="10">
         <v>99.9</v>
@@ -35631,7 +35631,7 @@
         <v>100.3</v>
       </c>
       <c r="KW32" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KX32" t="n" s="10">
         <v>100.9</v>
@@ -35718,7 +35718,7 @@
         <v>105.1</v>
       </c>
       <c r="LZ32" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="MA32" t="n" s="10">
         <v>103.8</v>
@@ -35754,22 +35754,22 @@
         <v>96.1</v>
       </c>
       <c r="ML32" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="MM32" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="MN32" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="MO32" t="n" s="10">
         <v>92.8</v>
       </c>
       <c r="MP32" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="MQ32" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="MR32" t="n" s="10">
         <v>92.8</v>
@@ -35781,61 +35781,61 @@
         <v>94.5</v>
       </c>
       <c r="MU32" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="MV32" t="n" s="10">
         <v>97.1</v>
       </c>
       <c r="MW32" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="MX32" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="MY32" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="MZ32" t="n" s="10">
+        <v>101.8</v>
+      </c>
+      <c r="NA32" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="NB32" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="NC32" t="n" s="10">
+        <v>103.3</v>
+      </c>
+      <c r="ND32" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="NE32" t="n" s="10">
+        <v>103.7</v>
+      </c>
+      <c r="NF32" t="n" s="10">
+        <v>103.4</v>
+      </c>
+      <c r="NG32" t="n" s="10">
+        <v>102.6</v>
+      </c>
+      <c r="NH32" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="NI32" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="NA32" t="n" s="10">
-        <v>103.1</v>
-      </c>
-      <c r="NB32" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="NC32" t="n" s="10">
-        <v>104.4</v>
-      </c>
-      <c r="ND32" t="n" s="10">
-        <v>104.5</v>
-      </c>
-      <c r="NE32" t="n" s="10">
-        <v>104.0</v>
-      </c>
-      <c r="NF32" t="n" s="10">
-        <v>103.6</v>
-      </c>
-      <c r="NG32" t="n" s="10">
-        <v>103.0</v>
-      </c>
-      <c r="NH32" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="NI32" t="n" s="10">
-        <v>101.7</v>
-      </c>
       <c r="NJ32" t="n" s="10">
-        <v>100.9</v>
-      </c>
-      <c r="NK32" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL32" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM32" t="s" s="10">
-        <v>53</v>
+        <v>102.1</v>
+      </c>
+      <c r="NK32" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="NL32" t="n" s="10">
+        <v>102.0</v>
+      </c>
+      <c r="NM32" t="n" s="10">
+        <v>101.5</v>
       </c>
       <c r="NN32" t="s" s="10">
         <v>53</v>
@@ -36988,16 +36988,16 @@
         <v>112.2</v>
       </c>
       <c r="NJ34" t="n" s="10">
-        <v>83.8</v>
-      </c>
-      <c r="NK34" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL34" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM34" t="s" s="10">
-        <v>53</v>
+        <v>80.2</v>
+      </c>
+      <c r="NK34" t="n" s="10">
+        <v>89.3</v>
+      </c>
+      <c r="NL34" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="NM34" t="n" s="10">
+        <v>85.7</v>
       </c>
       <c r="NN34" t="s" s="10">
         <v>53</v>
@@ -37899,13 +37899,13 @@
         <v>90.3</v>
       </c>
       <c r="KF35" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="KG35" t="n" s="10">
+        <v>97.2</v>
+      </c>
+      <c r="KH35" t="n" s="10">
         <v>97.1</v>
-      </c>
-      <c r="KH35" t="n" s="10">
-        <v>97.2</v>
       </c>
       <c r="KI35" t="n" s="10">
         <v>106.9</v>
@@ -37914,25 +37914,25 @@
         <v>100.6</v>
       </c>
       <c r="KK35" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="KL35" t="n" s="10">
         <v>103.0</v>
       </c>
       <c r="KM35" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KN35" t="n" s="10">
         <v>105.1</v>
       </c>
       <c r="KO35" t="n" s="10">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="KP35" t="n" s="10">
-        <v>82.0</v>
+        <v>81.9</v>
       </c>
       <c r="KQ35" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="KR35" t="n" s="10">
         <v>109.4</v>
@@ -37944,7 +37944,7 @@
         <v>92.7</v>
       </c>
       <c r="KU35" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="KV35" t="n" s="10">
         <v>96.4</v>
@@ -37953,31 +37953,31 @@
         <v>91.9</v>
       </c>
       <c r="KX35" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="KY35" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="KZ35" t="n" s="10">
         <v>110.3</v>
       </c>
       <c r="LA35" t="n" s="10">
-        <v>115.0</v>
+        <v>115.2</v>
       </c>
       <c r="LB35" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="LC35" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="LD35" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="LE35" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="LF35" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="LG35" t="n" s="10">
         <v>109.1</v>
@@ -37992,7 +37992,7 @@
         <v>112.4</v>
       </c>
       <c r="LK35" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="LL35" t="n" s="10">
         <v>116.0</v>
@@ -38013,7 +38013,7 @@
         <v>100.2</v>
       </c>
       <c r="LR35" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="LS35" t="n" s="10">
         <v>112.6</v>
@@ -38034,7 +38034,7 @@
         <v>113.4</v>
       </c>
       <c r="LY35" t="n" s="10">
-        <v>124.8</v>
+        <v>124.5</v>
       </c>
       <c r="LZ35" t="n" s="10">
         <v>87.8</v>
@@ -38055,7 +38055,7 @@
         <v>109.2</v>
       </c>
       <c r="MF35" t="n" s="10">
-        <v>102.9</v>
+        <v>103.0</v>
       </c>
       <c r="MG35" t="n" s="10">
         <v>94.0</v>
@@ -38070,7 +38070,7 @@
         <v>108.6</v>
       </c>
       <c r="MK35" t="n" s="10">
-        <v>116.4</v>
+        <v>116.3</v>
       </c>
       <c r="ML35" t="n" s="10">
         <v>82.6</v>
@@ -38079,7 +38079,7 @@
         <v>91.2</v>
       </c>
       <c r="MN35" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="MO35" t="n" s="10">
         <v>70.0</v>
@@ -38091,7 +38091,7 @@
         <v>96.5</v>
       </c>
       <c r="MR35" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="MS35" t="n" s="10">
         <v>78.8</v>
@@ -38106,28 +38106,28 @@
         <v>98.8</v>
       </c>
       <c r="MW35" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="MX35" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="MY35" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="MZ35" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="NA35" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="NB35" t="n" s="10">
-        <v>93.0</v>
+        <v>92.9</v>
       </c>
       <c r="NC35" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="ND35" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="NE35" t="n" s="10">
         <v>86.4</v>
@@ -38142,19 +38142,19 @@
         <v>101.6</v>
       </c>
       <c r="NI35" t="n" s="10">
-        <v>108.4</v>
+        <v>108.6</v>
       </c>
       <c r="NJ35" t="n" s="10">
-        <v>85.6</v>
-      </c>
-      <c r="NK35" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL35" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM35" t="s" s="10">
-        <v>53</v>
+        <v>81.9</v>
+      </c>
+      <c r="NK35" t="n" s="10">
+        <v>88.9</v>
+      </c>
+      <c r="NL35" t="n" s="10">
+        <v>100.7</v>
+      </c>
+      <c r="NM35" t="n" s="10">
+        <v>88.5</v>
       </c>
       <c r="NN35" t="s" s="10">
         <v>53</v>
@@ -39050,7 +39050,7 @@
         <v>102.7</v>
       </c>
       <c r="KD36" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="KE36" t="n" s="10">
         <v>98.5</v>
@@ -39059,34 +39059,34 @@
         <v>99.2</v>
       </c>
       <c r="KG36" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="KH36" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="KI36" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="KJ36" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="KK36" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="KL36" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="KM36" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="KN36" t="n" s="10">
+        <v>98.3</v>
+      </c>
+      <c r="KO36" t="n" s="10">
         <v>98.2</v>
       </c>
-      <c r="KO36" t="n" s="10">
-        <v>98.1</v>
-      </c>
       <c r="KP36" t="n" s="10">
-        <v>99.3</v>
+        <v>99.1</v>
       </c>
       <c r="KQ36" t="n" s="10">
         <v>100.0</v>
@@ -39098,220 +39098,220 @@
         <v>99.2</v>
       </c>
       <c r="KT36" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="KU36" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="KV36" t="n" s="10">
-        <v>97.4</v>
+        <v>97.2</v>
       </c>
       <c r="KW36" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="KX36" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KY36" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="KZ36" t="n" s="10">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="LA36" t="n" s="10">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="LB36" t="n" s="10">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="LC36" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="LD36" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="LE36" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="LF36" t="n" s="10">
         <v>103.7</v>
       </c>
       <c r="LG36" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="LH36" t="n" s="10">
+        <v>102.8</v>
+      </c>
+      <c r="LI36" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="LJ36" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="LK36" t="n" s="10">
         <v>103.0</v>
       </c>
-      <c r="LH36" t="n" s="10">
-        <v>103.1</v>
-      </c>
-      <c r="LI36" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="LJ36" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="LK36" t="n" s="10">
-        <v>102.9</v>
-      </c>
       <c r="LL36" t="n" s="10">
-        <v>108.1</v>
+        <v>108.3</v>
       </c>
       <c r="LM36" t="n" s="10">
         <v>110.3</v>
       </c>
       <c r="LN36" t="n" s="10">
-        <v>106.4</v>
+        <v>106.0</v>
       </c>
       <c r="LO36" t="n" s="10">
         <v>105.4</v>
       </c>
       <c r="LP36" t="n" s="10">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="LQ36" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="LR36" t="n" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="LS36" t="n" s="10">
         <v>106.5</v>
       </c>
-      <c r="LS36" t="n" s="10">
-        <v>106.1</v>
-      </c>
       <c r="LT36" t="n" s="10">
-        <v>106.3</v>
+        <v>105.8</v>
       </c>
       <c r="LU36" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="LV36" t="n" s="10">
-        <v>106.0</v>
+        <v>106.2</v>
       </c>
       <c r="LW36" t="n" s="10">
         <v>108.9</v>
       </c>
       <c r="LX36" t="n" s="10">
-        <v>105.6</v>
+        <v>105.8</v>
       </c>
       <c r="LY36" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="LZ36" t="n" s="10">
-        <v>106.0</v>
+        <v>105.5</v>
       </c>
       <c r="MA36" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="MB36" t="n" s="10">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="MC36" t="n" s="10">
-        <v>104.5</v>
+        <v>104.1</v>
       </c>
       <c r="MD36" t="n" s="10">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="ME36" t="n" s="10">
-        <v>102.7</v>
+        <v>103.3</v>
       </c>
       <c r="MF36" t="n" s="10">
-        <v>104.6</v>
+        <v>104.0</v>
       </c>
       <c r="MG36" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="MH36" t="n" s="10">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="MI36" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="MJ36" t="n" s="10">
-        <v>101.0</v>
+        <v>101.2</v>
       </c>
       <c r="MK36" t="n" s="10">
-        <v>99.9</v>
+        <v>100.2</v>
       </c>
       <c r="ML36" t="n" s="10">
-        <v>99.6</v>
+        <v>99.0</v>
       </c>
       <c r="MM36" t="n" s="10">
-        <v>98.8</v>
+        <v>99.0</v>
       </c>
       <c r="MN36" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="MO36" t="n" s="10">
-        <v>73.5</v>
+        <v>73.0</v>
       </c>
       <c r="MP36" t="n" s="10">
-        <v>81.2</v>
+        <v>81.0</v>
       </c>
       <c r="MQ36" t="n" s="10">
-        <v>90.7</v>
+        <v>91.4</v>
       </c>
       <c r="MR36" t="n" s="10">
-        <v>87.9</v>
+        <v>87.3</v>
       </c>
       <c r="MS36" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="MT36" t="n" s="10">
-        <v>89.4</v>
+        <v>89.8</v>
       </c>
       <c r="MU36" t="n" s="10">
-        <v>90.5</v>
+        <v>90.3</v>
       </c>
       <c r="MV36" t="n" s="10">
-        <v>91.8</v>
+        <v>92.1</v>
       </c>
       <c r="MW36" t="n" s="10">
+        <v>92.2</v>
+      </c>
+      <c r="MX36" t="n" s="10">
+        <v>98.0</v>
+      </c>
+      <c r="MY36" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="MZ36" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="NA36" t="n" s="10">
+        <v>98.2</v>
+      </c>
+      <c r="NB36" t="n" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="NC36" t="n" s="10">
+        <v>93.2</v>
+      </c>
+      <c r="ND36" t="n" s="10">
+        <v>98.9</v>
+      </c>
+      <c r="NE36" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="NF36" t="n" s="10">
+        <v>94.4</v>
+      </c>
+      <c r="NG36" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="NH36" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="NI36" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="NJ36" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="NK36" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="NL36" t="n" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="NM36" t="n" s="10">
         <v>91.6</v>
-      </c>
-      <c r="MX36" t="n" s="10">
-        <v>98.8</v>
-      </c>
-      <c r="MY36" t="n" s="10">
-        <v>95.5</v>
-      </c>
-      <c r="MZ36" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="NA36" t="n" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="NB36" t="n" s="10">
-        <v>97.3</v>
-      </c>
-      <c r="NC36" t="n" s="10">
-        <v>92.3</v>
-      </c>
-      <c r="ND36" t="n" s="10">
-        <v>99.8</v>
-      </c>
-      <c r="NE36" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="NF36" t="n" s="10">
-        <v>93.8</v>
-      </c>
-      <c r="NG36" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="NH36" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="NI36" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="NJ36" t="n" s="10">
-        <v>102.8</v>
-      </c>
-      <c r="NK36" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL36" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM36" t="s" s="10">
-        <v>53</v>
       </c>
       <c r="NN36" t="s" s="10">
         <v>53</v>
@@ -40207,28 +40207,28 @@
         <v>101.6</v>
       </c>
       <c r="KD37" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="KE37" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="KF37" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KG37" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="KH37" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="KI37" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="KJ37" t="n" s="10">
         <v>101.9</v>
       </c>
       <c r="KK37" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KL37" t="n" s="10">
         <v>98.2</v>
@@ -40249,34 +40249,34 @@
         <v>100.1</v>
       </c>
       <c r="KR37" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="KS37" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="KT37" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="KU37" t="n" s="10">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="KV37" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="KW37" t="n" s="10">
         <v>100.8</v>
       </c>
       <c r="KX37" t="n" s="10">
+        <v>100.9</v>
+      </c>
+      <c r="KY37" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="KZ37" t="n" s="10">
         <v>101.0</v>
       </c>
-      <c r="KY37" t="n" s="10">
-        <v>99.5</v>
-      </c>
-      <c r="KZ37" t="n" s="10">
-        <v>101.1</v>
-      </c>
       <c r="LA37" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="LB37" t="n" s="10">
         <v>100.6</v>
@@ -40291,22 +40291,22 @@
         <v>102.3</v>
       </c>
       <c r="LF37" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="LG37" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="LH37" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="LI37" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="LJ37" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="LK37" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="LL37" t="n" s="10">
         <v>107.2</v>
@@ -40327,7 +40327,7 @@
         <v>106.8</v>
       </c>
       <c r="LR37" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="LS37" t="n" s="10">
         <v>107.1</v>
@@ -40348,7 +40348,7 @@
         <v>105.3</v>
       </c>
       <c r="LY37" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="LZ37" t="n" s="10">
         <v>105.7</v>
@@ -40360,7 +40360,7 @@
         <v>105.6</v>
       </c>
       <c r="MC37" t="n" s="10">
-        <v>105.0</v>
+        <v>105.2</v>
       </c>
       <c r="MD37" t="n" s="10">
         <v>106.8</v>
@@ -40369,22 +40369,22 @@
         <v>103.3</v>
       </c>
       <c r="MF37" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="MG37" t="n" s="10">
         <v>102.5</v>
       </c>
       <c r="MH37" t="n" s="10">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="MI37" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="MJ37" t="n" s="10">
         <v>99.2</v>
       </c>
       <c r="MK37" t="n" s="10">
-        <v>99.2</v>
+        <v>99.4</v>
       </c>
       <c r="ML37" t="n" s="10">
         <v>96.3</v>
@@ -40396,79 +40396,79 @@
         <v>92.5</v>
       </c>
       <c r="MO37" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="MP37" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="MQ37" t="n" s="10">
         <v>92.0</v>
       </c>
       <c r="MR37" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="MS37" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="MT37" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="MU37" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="MV37" t="n" s="10">
         <v>92.9</v>
       </c>
       <c r="MW37" t="n" s="10">
-        <v>90.8</v>
+        <v>91.3</v>
       </c>
       <c r="MX37" t="n" s="10">
-        <v>94.1</v>
+        <v>94.3</v>
       </c>
       <c r="MY37" t="n" s="10">
-        <v>94.1</v>
+        <v>93.9</v>
       </c>
       <c r="MZ37" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="NA37" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="NB37" t="n" s="10">
-        <v>101.8</v>
+        <v>101.3</v>
       </c>
       <c r="NC37" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="ND37" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="NE37" t="n" s="10">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
       <c r="NF37" t="n" s="10">
-        <v>95.6</v>
+        <v>95.8</v>
       </c>
       <c r="NG37" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="NH37" t="n" s="10">
-        <v>94.1</v>
+        <v>93.7</v>
       </c>
       <c r="NI37" t="n" s="10">
         <v>93.5</v>
       </c>
       <c r="NJ37" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="NK37" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL37" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM37" t="s" s="10">
-        <v>53</v>
+        <v>94.5</v>
+      </c>
+      <c r="NK37" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="NL37" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="NM37" t="n" s="10">
+        <v>90.8</v>
       </c>
       <c r="NN37" t="s" s="10">
         <v>53</v>
@@ -40956,7 +40956,7 @@
         <v>76.7</v>
       </c>
       <c r="EX38" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="EY38" t="n" s="10">
         <v>77.5</v>
@@ -41019,31 +41019,31 @@
         <v>83.3</v>
       </c>
       <c r="FS38" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="FT38" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="FU38" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="FV38" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="FW38" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="FX38" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="FY38" t="n" s="10">
         <v>86.6</v>
       </c>
       <c r="FZ38" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="GA38" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="GB38" t="n" s="10">
         <v>88.4</v>
@@ -41061,7 +41061,7 @@
         <v>91.8</v>
       </c>
       <c r="GG38" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="GH38" t="n" s="10">
         <v>93.6</v>
@@ -41076,7 +41076,7 @@
         <v>96.2</v>
       </c>
       <c r="GL38" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="GM38" t="n" s="10">
         <v>97.9</v>
@@ -41100,7 +41100,7 @@
         <v>102.7</v>
       </c>
       <c r="GT38" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="GU38" t="n" s="10">
         <v>104.2</v>
@@ -41226,7 +41226,7 @@
         <v>95.7</v>
       </c>
       <c r="IJ38" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="IK38" t="n" s="10">
         <v>97.4</v>
@@ -41244,13 +41244,13 @@
         <v>99.7</v>
       </c>
       <c r="IP38" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="IQ38" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="IR38" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="IS38" t="n" s="10">
         <v>100.8</v>
@@ -41319,10 +41319,10 @@
         <v>98.8</v>
       </c>
       <c r="JO38" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="JP38" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="JQ38" t="n" s="10">
         <v>98.9</v>
@@ -41367,7 +41367,7 @@
         <v>100.6</v>
       </c>
       <c r="KE38" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="KF38" t="n" s="10">
         <v>100.7</v>
@@ -41388,7 +41388,7 @@
         <v>100.2</v>
       </c>
       <c r="KL38" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="KM38" t="n" s="10">
         <v>99.9</v>
@@ -41397,7 +41397,7 @@
         <v>99.8</v>
       </c>
       <c r="KO38" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="KP38" t="n" s="10">
         <v>99.5</v>
@@ -41424,34 +41424,34 @@
         <v>99.7</v>
       </c>
       <c r="KX38" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="KY38" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="KZ38" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="LA38" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="LB38" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="LC38" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="LD38" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="LE38" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="LF38" t="n" s="10">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="LG38" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="LH38" t="n" s="10">
         <v>104.3</v>
@@ -41505,7 +41505,7 @@
         <v>106.4</v>
       </c>
       <c r="LY38" t="n" s="10">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="LZ38" t="n" s="10">
         <v>106.1</v>
@@ -41514,16 +41514,16 @@
         <v>105.9</v>
       </c>
       <c r="MB38" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="MC38" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="MD38" t="n" s="10">
         <v>104.8</v>
       </c>
       <c r="ME38" t="n" s="10">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="MF38" t="n" s="10">
         <v>103.6</v>
@@ -41532,7 +41532,7 @@
         <v>102.7</v>
       </c>
       <c r="MH38" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="MI38" t="n" s="10">
         <v>100.4</v>
@@ -41550,10 +41550,10 @@
         <v>94.8</v>
       </c>
       <c r="MN38" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="MO38" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="MP38" t="n" s="10">
         <v>91.1</v>
@@ -41562,7 +41562,7 @@
         <v>90.5</v>
       </c>
       <c r="MR38" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="MS38" t="n" s="10">
         <v>90.3</v>
@@ -41577,55 +41577,55 @@
         <v>92.1</v>
       </c>
       <c r="MW38" t="n" s="10">
-        <v>92.9</v>
+        <v>93.0</v>
       </c>
       <c r="MX38" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="MY38" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="MZ38" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="NA38" t="n" s="10">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="NB38" t="n" s="10">
+        <v>96.6</v>
+      </c>
+      <c r="NC38" t="n" s="10">
         <v>97.0</v>
       </c>
-      <c r="NC38" t="n" s="10">
-        <v>97.5</v>
-      </c>
       <c r="ND38" t="n" s="10">
-        <v>97.6</v>
+        <v>97.3</v>
       </c>
       <c r="NE38" t="n" s="10">
         <v>97.4</v>
       </c>
       <c r="NF38" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="NG38" t="n" s="10">
-        <v>97.0</v>
+        <v>96.5</v>
       </c>
       <c r="NH38" t="n" s="10">
-        <v>96.8</v>
+        <v>95.9</v>
       </c>
       <c r="NI38" t="n" s="10">
-        <v>96.3</v>
+        <v>95.2</v>
       </c>
       <c r="NJ38" t="n" s="10">
-        <v>95.7</v>
-      </c>
-      <c r="NK38" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL38" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM38" t="s" s="10">
-        <v>53</v>
+        <v>94.6</v>
+      </c>
+      <c r="NK38" t="n" s="10">
+        <v>93.9</v>
+      </c>
+      <c r="NL38" t="n" s="10">
+        <v>93.1</v>
+      </c>
+      <c r="NM38" t="n" s="10">
+        <v>92.2</v>
       </c>
       <c r="NN38" t="s" s="10">
         <v>53</v>
@@ -42778,16 +42778,16 @@
         <v>59.5</v>
       </c>
       <c r="NJ40" t="n" s="10">
-        <v>60.3</v>
-      </c>
-      <c r="NK40" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL40" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM40" t="s" s="10">
-        <v>53</v>
+        <v>60.7</v>
+      </c>
+      <c r="NK40" t="n" s="10">
+        <v>68.4</v>
+      </c>
+      <c r="NL40" t="n" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="NM40" t="n" s="10">
+        <v>58.9</v>
       </c>
       <c r="NN40" t="s" s="10">
         <v>53</v>
@@ -43761,7 +43761,7 @@
         <v>105.8</v>
       </c>
       <c r="LD41" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="LE41" t="n" s="10">
         <v>107.3</v>
@@ -43935,16 +43935,16 @@
         <v>56.6</v>
       </c>
       <c r="NJ41" t="n" s="10">
-        <v>62.1</v>
-      </c>
-      <c r="NK41" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL41" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM41" t="s" s="10">
-        <v>53</v>
+        <v>62.5</v>
+      </c>
+      <c r="NK41" t="n" s="10">
+        <v>67.9</v>
+      </c>
+      <c r="NL41" t="n" s="10">
+        <v>64.0</v>
+      </c>
+      <c r="NM41" t="n" s="10">
+        <v>61.6</v>
       </c>
       <c r="NN41" t="s" s="10">
         <v>53</v>
@@ -44840,10 +44840,10 @@
         <v>103.1</v>
       </c>
       <c r="KD42" t="n" s="10">
-        <v>98.0</v>
+        <v>98.3</v>
       </c>
       <c r="KE42" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="KF42" t="n" s="10">
         <v>98.9</v>
@@ -44852,7 +44852,7 @@
         <v>98.2</v>
       </c>
       <c r="KH42" t="n" s="10">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="KI42" t="n" s="10">
         <v>97.9</v>
@@ -44873,13 +44873,13 @@
         <v>98.6</v>
       </c>
       <c r="KO42" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="KP42" t="n" s="10">
-        <v>106.0</v>
+        <v>106.3</v>
       </c>
       <c r="KQ42" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="KR42" t="n" s="10">
         <v>100.5</v>
@@ -44912,10 +44912,10 @@
         <v>95.7</v>
       </c>
       <c r="LB42" t="n" s="10">
-        <v>102.8</v>
+        <v>103.0</v>
       </c>
       <c r="LC42" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="LD42" t="n" s="10">
         <v>101.5</v>
@@ -44927,7 +44927,7 @@
         <v>105.0</v>
       </c>
       <c r="LG42" t="n" s="10">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="LH42" t="n" s="10">
         <v>103.5</v>
@@ -44948,10 +44948,10 @@
         <v>104.4</v>
       </c>
       <c r="LN42" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="LO42" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="LP42" t="n" s="10">
         <v>109.1</v>
@@ -44987,7 +44987,7 @@
         <v>92.5</v>
       </c>
       <c r="MA42" t="n" s="10">
-        <v>96.3</v>
+        <v>96.1</v>
       </c>
       <c r="MB42" t="n" s="10">
         <v>96.8</v>
@@ -45008,10 +45008,10 @@
         <v>93.7</v>
       </c>
       <c r="MH42" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="MI42" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="MJ42" t="n" s="10">
         <v>88.1</v>
@@ -45023,7 +45023,7 @@
         <v>86.9</v>
       </c>
       <c r="MM42" t="n" s="10">
-        <v>89.3</v>
+        <v>89.1</v>
       </c>
       <c r="MN42" t="n" s="10">
         <v>59.2</v>
@@ -45053,13 +45053,13 @@
         <v>83.0</v>
       </c>
       <c r="MW42" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="MX42" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="MY42" t="n" s="10">
-        <v>71.8</v>
+        <v>71.6</v>
       </c>
       <c r="MZ42" t="n" s="10">
         <v>71.3</v>
@@ -45068,7 +45068,7 @@
         <v>69.2</v>
       </c>
       <c r="NB42" t="n" s="10">
-        <v>65.1</v>
+        <v>65.2</v>
       </c>
       <c r="NC42" t="n" s="10">
         <v>64.2</v>
@@ -45077,10 +45077,10 @@
         <v>65.0</v>
       </c>
       <c r="NE42" t="n" s="10">
-        <v>52.4</v>
+        <v>52.5</v>
       </c>
       <c r="NF42" t="n" s="10">
-        <v>53.3</v>
+        <v>53.4</v>
       </c>
       <c r="NG42" t="n" s="10">
         <v>61.5</v>
@@ -45089,19 +45089,19 @@
         <v>63.7</v>
       </c>
       <c r="NI42" t="n" s="10">
-        <v>68.4</v>
+        <v>68.5</v>
       </c>
       <c r="NJ42" t="n" s="10">
-        <v>66.3</v>
-      </c>
-      <c r="NK42" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL42" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM42" t="s" s="10">
-        <v>53</v>
+        <v>66.8</v>
+      </c>
+      <c r="NK42" t="n" s="10">
+        <v>65.7</v>
+      </c>
+      <c r="NL42" t="n" s="10">
+        <v>56.2</v>
+      </c>
+      <c r="NM42" t="n" s="10">
+        <v>60.0</v>
       </c>
       <c r="NN42" t="s" s="10">
         <v>53</v>
@@ -46000,19 +46000,19 @@
         <v>97.9</v>
       </c>
       <c r="KE43" t="n" s="10">
-        <v>100.3</v>
+        <v>99.9</v>
       </c>
       <c r="KF43" t="n" s="10">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="KG43" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="KH43" t="n" s="10">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="KI43" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="KJ43" t="n" s="10">
         <v>101.7</v>
@@ -46021,82 +46021,82 @@
         <v>101.3</v>
       </c>
       <c r="KL43" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KM43" t="n" s="10">
         <v>102.6</v>
       </c>
       <c r="KN43" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="KO43" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="KP43" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="KQ43" t="n" s="10">
-        <v>100.4</v>
+        <v>101.4</v>
       </c>
       <c r="KR43" t="n" s="10">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="KS43" t="n" s="10">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="KT43" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="KU43" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="KV43" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="KW43" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="KX43" t="n" s="10">
         <v>103.1</v>
       </c>
       <c r="KY43" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="KZ43" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="LA43" t="n" s="10">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="LB43" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="LC43" t="n" s="10">
-        <v>104.7</v>
+        <v>104.3</v>
       </c>
       <c r="LD43" t="n" s="10">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="LE43" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="LF43" t="n" s="10">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="LG43" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="LH43" t="n" s="10">
         <v>104.7</v>
       </c>
       <c r="LI43" t="n" s="10">
-        <v>110.3</v>
+        <v>110.5</v>
       </c>
       <c r="LJ43" t="n" s="10">
         <v>106.9</v>
       </c>
       <c r="LK43" t="n" s="10">
-        <v>105.4</v>
+        <v>105.1</v>
       </c>
       <c r="LL43" t="n" s="10">
         <v>111.4</v>
@@ -46105,28 +46105,28 @@
         <v>107.1</v>
       </c>
       <c r="LN43" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="LO43" t="n" s="10">
         <v>104.2</v>
       </c>
       <c r="LP43" t="n" s="10">
-        <v>108.1</v>
+        <v>108.3</v>
       </c>
       <c r="LQ43" t="n" s="10">
-        <v>109.7</v>
+        <v>109.4</v>
       </c>
       <c r="LR43" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="LS43" t="n" s="10">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="LT43" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="LU43" t="n" s="10">
-        <v>97.8</v>
+        <v>97.6</v>
       </c>
       <c r="LV43" t="n" s="10">
         <v>99.0</v>
@@ -46135,130 +46135,130 @@
         <v>101.3</v>
       </c>
       <c r="LX43" t="n" s="10">
-        <v>96.9</v>
+        <v>96.7</v>
       </c>
       <c r="LY43" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="LZ43" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="MA43" t="n" s="10">
-        <v>97.6</v>
+        <v>98.8</v>
       </c>
       <c r="MB43" t="n" s="10">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="MC43" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="MD43" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="ME43" t="n" s="10">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="MF43" t="n" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="MG43" t="n" s="10">
         <v>92.7</v>
       </c>
-      <c r="MG43" t="n" s="10">
-        <v>92.8</v>
-      </c>
       <c r="MH43" t="n" s="10">
-        <v>91.6</v>
+        <v>91.1</v>
       </c>
       <c r="MI43" t="n" s="10">
-        <v>85.0</v>
+        <v>84.7</v>
       </c>
       <c r="MJ43" t="n" s="10">
-        <v>83.0</v>
+        <v>82.8</v>
       </c>
       <c r="MK43" t="n" s="10">
-        <v>82.2</v>
+        <v>81.6</v>
       </c>
       <c r="ML43" t="n" s="10">
-        <v>83.8</v>
+        <v>83.5</v>
       </c>
       <c r="MM43" t="n" s="10">
-        <v>80.8</v>
+        <v>85.5</v>
       </c>
       <c r="MN43" t="n" s="10">
-        <v>67.5</v>
+        <v>67.0</v>
       </c>
       <c r="MO43" t="n" s="10">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="MP43" t="n" s="10">
-        <v>46.6</v>
+        <v>46.3</v>
       </c>
       <c r="MQ43" t="n" s="10">
-        <v>74.4</v>
+        <v>74.1</v>
       </c>
       <c r="MR43" t="n" s="10">
-        <v>76.4</v>
+        <v>76.2</v>
       </c>
       <c r="MS43" t="n" s="10">
         <v>75.6</v>
       </c>
       <c r="MT43" t="n" s="10">
-        <v>77.0</v>
+        <v>77.4</v>
       </c>
       <c r="MU43" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="MV43" t="n" s="10">
-        <v>80.5</v>
+        <v>80.2</v>
       </c>
       <c r="MW43" t="n" s="10">
-        <v>76.2</v>
+        <v>75.9</v>
       </c>
       <c r="MX43" t="n" s="10">
         <v>71.8</v>
       </c>
       <c r="MY43" t="n" s="10">
-        <v>70.6</v>
+        <v>71.7</v>
       </c>
       <c r="MZ43" t="n" s="10">
-        <v>81.0</v>
+        <v>79.8</v>
       </c>
       <c r="NA43" t="n" s="10">
-        <v>72.1</v>
+        <v>71.3</v>
       </c>
       <c r="NB43" t="n" s="10">
-        <v>68.3</v>
+        <v>67.7</v>
       </c>
       <c r="NC43" t="n" s="10">
-        <v>66.8</v>
+        <v>66.5</v>
       </c>
       <c r="ND43" t="n" s="10">
-        <v>63.5</v>
+        <v>63.7</v>
       </c>
       <c r="NE43" t="n" s="10">
-        <v>62.1</v>
+        <v>62.3</v>
       </c>
       <c r="NF43" t="n" s="10">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="NG43" t="n" s="10">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="NH43" t="n" s="10">
-        <v>56.0</v>
+        <v>55.7</v>
       </c>
       <c r="NI43" t="n" s="10">
-        <v>61.1</v>
+        <v>61.4</v>
       </c>
       <c r="NJ43" t="n" s="10">
-        <v>62.4</v>
-      </c>
-      <c r="NK43" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL43" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM43" t="s" s="10">
-        <v>53</v>
+        <v>63.6</v>
+      </c>
+      <c r="NK43" t="n" s="10">
+        <v>63.9</v>
+      </c>
+      <c r="NL43" t="n" s="10">
+        <v>58.3</v>
+      </c>
+      <c r="NM43" t="n" s="10">
+        <v>60.3</v>
       </c>
       <c r="NN43" t="s" s="10">
         <v>53</v>
@@ -46722,16 +46722,16 @@
         <v>75.1</v>
       </c>
       <c r="EP44" t="n" s="10">
-        <v>76.7</v>
+        <v>76.4</v>
       </c>
       <c r="EQ44" t="n" s="10">
-        <v>76.4</v>
+        <v>76.1</v>
       </c>
       <c r="ER44" t="n" s="10">
-        <v>75.8</v>
+        <v>75.6</v>
       </c>
       <c r="ES44" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="ET44" t="n" s="10">
         <v>74.1</v>
@@ -46740,37 +46740,37 @@
         <v>73.5</v>
       </c>
       <c r="EV44" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="EW44" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="EX44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="EY44" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="EZ44" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="FA44" t="n" s="10">
-        <v>75.4</v>
+        <v>75.6</v>
       </c>
       <c r="FB44" t="n" s="10">
-        <v>75.9</v>
+        <v>76.1</v>
       </c>
       <c r="FC44" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="FD44" t="n" s="10">
-        <v>77.0</v>
+        <v>77.2</v>
       </c>
       <c r="FE44" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="FF44" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="FG44" t="n" s="10">
         <v>77.9</v>
@@ -46785,34 +46785,34 @@
         <v>78.1</v>
       </c>
       <c r="FK44" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="FL44" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="FM44" t="n" s="10">
         <v>78.4</v>
       </c>
       <c r="FN44" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="FO44" t="n" s="10">
-        <v>79.1</v>
+        <v>79.0</v>
       </c>
       <c r="FP44" t="n" s="10">
         <v>79.2</v>
       </c>
       <c r="FQ44" t="n" s="10">
-        <v>79.5</v>
+        <v>79.4</v>
       </c>
       <c r="FR44" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="FS44" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="FT44" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="FU44" t="n" s="10">
         <v>80.8</v>
@@ -46848,7 +46848,7 @@
         <v>83.1</v>
       </c>
       <c r="GF44" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="GG44" t="n" s="10">
         <v>83.8</v>
@@ -46866,7 +46866,7 @@
         <v>85.9</v>
       </c>
       <c r="GL44" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="GM44" t="n" s="10">
         <v>86.9</v>
@@ -46875,10 +46875,10 @@
         <v>87.4</v>
       </c>
       <c r="GO44" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="GP44" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="GQ44" t="n" s="10">
         <v>89.1</v>
@@ -46887,43 +46887,43 @@
         <v>89.6</v>
       </c>
       <c r="GS44" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="GT44" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="GU44" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="GV44" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="GW44" t="n" s="10">
-        <v>91.2</v>
+        <v>91.4</v>
       </c>
       <c r="GX44" t="n" s="10">
-        <v>91.4</v>
+        <v>91.6</v>
       </c>
       <c r="GY44" t="n" s="10">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="GZ44" t="n" s="10">
-        <v>90.9</v>
+        <v>91.1</v>
       </c>
       <c r="HA44" t="n" s="10">
-        <v>89.9</v>
+        <v>90.1</v>
       </c>
       <c r="HB44" t="n" s="10">
-        <v>88.2</v>
+        <v>88.4</v>
       </c>
       <c r="HC44" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="HD44" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="HE44" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="HF44" t="n" s="10">
         <v>77.9</v>
@@ -46932,76 +46932,76 @@
         <v>74.8</v>
       </c>
       <c r="HH44" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="HI44" t="n" s="10">
-        <v>69.4</v>
+        <v>69.3</v>
       </c>
       <c r="HJ44" t="n" s="10">
         <v>67.2</v>
       </c>
       <c r="HK44" t="n" s="10">
-        <v>65.7</v>
+        <v>65.6</v>
       </c>
       <c r="HL44" t="n" s="10">
         <v>64.7</v>
       </c>
       <c r="HM44" t="n" s="10">
-        <v>64.4</v>
+        <v>64.3</v>
       </c>
       <c r="HN44" t="n" s="10">
-        <v>64.6</v>
+        <v>64.5</v>
       </c>
       <c r="HO44" t="n" s="10">
-        <v>65.4</v>
+        <v>65.3</v>
       </c>
       <c r="HP44" t="n" s="10">
-        <v>66.5</v>
+        <v>66.4</v>
       </c>
       <c r="HQ44" t="n" s="10">
-        <v>68.0</v>
+        <v>67.9</v>
       </c>
       <c r="HR44" t="n" s="10">
-        <v>69.7</v>
+        <v>69.6</v>
       </c>
       <c r="HS44" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="HT44" t="n" s="10">
-        <v>73.3</v>
+        <v>73.2</v>
       </c>
       <c r="HU44" t="n" s="10">
         <v>74.9</v>
       </c>
       <c r="HV44" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="HW44" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="HX44" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="HY44" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="HZ44" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="IA44" t="n" s="10">
-        <v>82.4</v>
+        <v>82.3</v>
       </c>
       <c r="IB44" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="IC44" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="ID44" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="IE44" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="IF44" t="n" s="10">
         <v>89.1</v>
@@ -47010,19 +47010,19 @@
         <v>90.3</v>
       </c>
       <c r="IH44" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="II44" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="IJ44" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="IK44" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="IL44" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="IM44" t="n" s="10">
         <v>94.7</v>
@@ -47031,43 +47031,43 @@
         <v>94.9</v>
       </c>
       <c r="IO44" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="IP44" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="IQ44" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="IR44" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="IS44" t="n" s="10">
+        <v>95.2</v>
+      </c>
+      <c r="IT44" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="IU44" t="n" s="10">
         <v>95.0</v>
       </c>
-      <c r="IP44" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="IQ44" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="IR44" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="IS44" t="n" s="10">
-        <v>95.0</v>
-      </c>
-      <c r="IT44" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="IU44" t="n" s="10">
+      <c r="IV44" t="n" s="10">
         <v>94.8</v>
       </c>
-      <c r="IV44" t="n" s="10">
-        <v>94.6</v>
-      </c>
       <c r="IW44" t="n" s="10">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="IX44" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="IY44" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="IZ44" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="JA44" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="JB44" t="n" s="10">
         <v>93.3</v>
@@ -47076,13 +47076,13 @@
         <v>93.1</v>
       </c>
       <c r="JD44" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="JE44" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="JF44" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="JG44" t="n" s="10">
         <v>93.4</v>
@@ -47091,43 +47091,43 @@
         <v>93.8</v>
       </c>
       <c r="JI44" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="JJ44" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="JK44" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="JL44" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="JM44" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="JN44" t="n" s="10">
-        <v>97.7</v>
+        <v>97.6</v>
       </c>
       <c r="JO44" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="JP44" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="JQ44" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="JR44" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="JS44" t="n" s="10">
+        <v>99.9</v>
+      </c>
+      <c r="JT44" t="n" s="10">
         <v>100.0</v>
       </c>
-      <c r="JT44" t="n" s="10">
+      <c r="JU44" t="n" s="10">
         <v>100.1</v>
-      </c>
-      <c r="JU44" t="n" s="10">
-        <v>100.2</v>
       </c>
       <c r="JV44" t="n" s="10">
         <v>100.2</v>
@@ -47136,10 +47136,10 @@
         <v>100.2</v>
       </c>
       <c r="JX44" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="JY44" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="JZ44" t="n" s="10">
         <v>99.7</v>
@@ -47163,10 +47163,10 @@
         <v>100.0</v>
       </c>
       <c r="KG44" t="n" s="10">
+        <v>100.1</v>
+      </c>
+      <c r="KH44" t="n" s="10">
         <v>100.2</v>
-      </c>
-      <c r="KH44" t="n" s="10">
-        <v>100.3</v>
       </c>
       <c r="KI44" t="n" s="10">
         <v>100.5</v>
@@ -47184,40 +47184,40 @@
         <v>101.1</v>
       </c>
       <c r="KN44" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="KO44" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="KP44" t="n" s="10">
-        <v>101.6</v>
+        <v>101.8</v>
       </c>
       <c r="KQ44" t="n" s="10">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="KR44" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="KS44" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="KT44" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="KU44" t="n" s="10">
+        <v>101.9</v>
+      </c>
+      <c r="KV44" t="n" s="10">
         <v>101.8</v>
       </c>
-      <c r="KS44" t="n" s="10">
+      <c r="KW44" t="n" s="10">
         <v>101.8</v>
-      </c>
-      <c r="KT44" t="n" s="10">
-        <v>101.7</v>
-      </c>
-      <c r="KU44" t="n" s="10">
-        <v>101.8</v>
-      </c>
-      <c r="KV44" t="n" s="10">
-        <v>101.7</v>
-      </c>
-      <c r="KW44" t="n" s="10">
-        <v>101.7</v>
       </c>
       <c r="KX44" t="n" s="10">
         <v>101.9</v>
       </c>
       <c r="KY44" t="n" s="10">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="KZ44" t="n" s="10">
         <v>101.9</v>
@@ -47226,10 +47226,10 @@
         <v>102.1</v>
       </c>
       <c r="LB44" t="n" s="10">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="LC44" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="LD44" t="n" s="10">
         <v>103.3</v>
@@ -47238,7 +47238,7 @@
         <v>103.8</v>
       </c>
       <c r="LF44" t="n" s="10">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="LG44" t="n" s="10">
         <v>105.0</v>
@@ -47247,10 +47247,10 @@
         <v>105.7</v>
       </c>
       <c r="LI44" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="LJ44" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="LK44" t="n" s="10">
         <v>107.7</v>
@@ -47280,13 +47280,13 @@
         <v>104.5</v>
       </c>
       <c r="LT44" t="n" s="10">
-        <v>103.4</v>
+        <v>103.3</v>
       </c>
       <c r="LU44" t="n" s="10">
         <v>102.2</v>
       </c>
       <c r="LV44" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="LW44" t="n" s="10">
         <v>100.2</v>
@@ -47298,124 +47298,124 @@
         <v>98.2</v>
       </c>
       <c r="LZ44" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="MA44" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="MB44" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="MC44" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="MD44" t="n" s="10">
         <v>94.4</v>
       </c>
       <c r="ME44" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="MF44" t="n" s="10">
-        <v>92.2</v>
+        <v>92.0</v>
       </c>
       <c r="MG44" t="n" s="10">
-        <v>90.6</v>
+        <v>90.3</v>
       </c>
       <c r="MH44" t="n" s="10">
-        <v>88.7</v>
+        <v>88.3</v>
       </c>
       <c r="MI44" t="n" s="10">
-        <v>86.6</v>
+        <v>86.0</v>
       </c>
       <c r="MJ44" t="n" s="10">
-        <v>84.4</v>
+        <v>83.8</v>
       </c>
       <c r="MK44" t="n" s="10">
-        <v>82.5</v>
+        <v>81.8</v>
       </c>
       <c r="ML44" t="n" s="10">
-        <v>80.7</v>
+        <v>79.9</v>
       </c>
       <c r="MM44" t="n" s="10">
-        <v>79.0</v>
+        <v>78.2</v>
       </c>
       <c r="MN44" t="n" s="10">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="MO44" t="n" s="10">
-        <v>76.7</v>
+        <v>76.0</v>
       </c>
       <c r="MP44" t="n" s="10">
-        <v>76.3</v>
+        <v>75.7</v>
       </c>
       <c r="MQ44" t="n" s="10">
-        <v>76.1</v>
+        <v>75.5</v>
       </c>
       <c r="MR44" t="n" s="10">
-        <v>76.1</v>
+        <v>75.6</v>
       </c>
       <c r="MS44" t="n" s="10">
-        <v>76.3</v>
+        <v>75.9</v>
       </c>
       <c r="MT44" t="n" s="10">
-        <v>76.5</v>
+        <v>76.2</v>
       </c>
       <c r="MU44" t="n" s="10">
-        <v>76.6</v>
+        <v>76.4</v>
       </c>
       <c r="MV44" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="MW44" t="n" s="10">
         <v>75.5</v>
       </c>
       <c r="MX44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.4</v>
       </c>
       <c r="MY44" t="n" s="10">
-        <v>72.9</v>
+        <v>73.1</v>
       </c>
       <c r="MZ44" t="n" s="10">
-        <v>71.8</v>
+        <v>71.6</v>
       </c>
       <c r="NA44" t="n" s="10">
-        <v>70.5</v>
+        <v>69.5</v>
       </c>
       <c r="NB44" t="n" s="10">
-        <v>68.8</v>
+        <v>67.7</v>
       </c>
       <c r="NC44" t="n" s="10">
-        <v>66.8</v>
+        <v>66.1</v>
       </c>
       <c r="ND44" t="n" s="10">
-        <v>64.3</v>
+        <v>64.5</v>
       </c>
       <c r="NE44" t="n" s="10">
-        <v>62.3</v>
+        <v>62.8</v>
       </c>
       <c r="NF44" t="n" s="10">
         <v>61.2</v>
       </c>
       <c r="NG44" t="n" s="10">
-        <v>60.4</v>
+        <v>59.8</v>
       </c>
       <c r="NH44" t="n" s="10">
-        <v>59.9</v>
+        <v>59.4</v>
       </c>
       <c r="NI44" t="n" s="10">
+        <v>59.0</v>
+      </c>
+      <c r="NJ44" t="n" s="10">
         <v>58.8</v>
       </c>
-      <c r="NJ44" t="n" s="10">
-        <v>57.3</v>
-      </c>
-      <c r="NK44" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NL44" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="NM44" t="s" s="10">
-        <v>53</v>
+      <c r="NK44" t="n" s="10">
+        <v>58.6</v>
+      </c>
+      <c r="NL44" t="n" s="10">
+        <v>58.7</v>
+      </c>
+      <c r="NM44" t="n" s="10">
+        <v>58.7</v>
       </c>
       <c r="NN44" t="s" s="10">
         <v>53</v>
@@ -47533,7 +47533,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:35:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:13:11&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (2-3-4-digit codes).xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Index of production in manufacturing (2-3-4-digit codes).xlsx
@@ -209,7 +209,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:13:03</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:26:06</t>
   </si>
 </sst>
 </file>
@@ -47533,7 +47533,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:13:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:26:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>